--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87AA106-E15B-496D-B0E2-5220C8992BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFB973F-A921-4478-B5B8-0C95F7B2A864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="66">
   <si>
     <t>Bug Log</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>Casper &amp; Bao Xian</t>
+  </si>
+  <si>
+    <t>Authenticate (web service)</t>
+  </si>
+  <si>
+    <t>Wrong username does not give expected output</t>
+  </si>
+  <si>
+    <t>Unresolved</t>
   </si>
 </sst>
 </file>
@@ -477,6 +486,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,27 +502,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -610,6 +609,16 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1004,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1022,16 +1031,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
@@ -1079,7 +1088,7 @@
         <f t="shared" ref="F3:F199" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="40">
         <f>SUM(F3:F21)</f>
         <v>97</v>
       </c>
@@ -1108,7 +1117,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="38"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
@@ -1131,7 +1140,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="38"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.4">
@@ -1154,7 +1163,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="38"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
@@ -1177,7 +1186,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="38"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -1200,7 +1209,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="38"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
@@ -1223,7 +1232,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
@@ -1246,7 +1255,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -1269,7 +1278,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="38"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -1292,7 +1301,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="38"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -1315,7 +1324,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="38"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -1337,7 +1346,7 @@
       <c r="F14" s="20">
         <v>1</v>
       </c>
-      <c r="G14" s="38"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -1359,7 +1368,7 @@
       <c r="F15" s="20">
         <v>5</v>
       </c>
-      <c r="G15" s="38"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -1381,7 +1390,7 @@
       <c r="F16" s="20">
         <v>1</v>
       </c>
-      <c r="G16" s="38"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
@@ -1403,7 +1412,7 @@
       <c r="F17" s="20">
         <v>5</v>
       </c>
-      <c r="G17" s="38"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -1425,7 +1434,7 @@
       <c r="F18" s="20">
         <v>5</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -1447,7 +1456,7 @@
       <c r="F19" s="20">
         <v>10</v>
       </c>
-      <c r="G19" s="38"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -1469,7 +1478,7 @@
       <c r="F20" s="20">
         <v>5</v>
       </c>
-      <c r="G20" s="38"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.4">
@@ -1491,7 +1500,7 @@
       <c r="F21" s="20">
         <v>5</v>
       </c>
-      <c r="G21" s="38"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
@@ -1535,13 +1544,28 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>10</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="20">
         <v>22</v>
+      </c>
+      <c r="B24" s="21">
+        <v>2</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
@@ -6651,7 +6675,7 @@
     <mergeCell ref="G3:G21"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6668,8 +6692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6686,16 +6710,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
@@ -7296,7 +7320,7 @@
       <c r="D23" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="38" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="19">
@@ -7313,11 +7337,21 @@
       <c r="A24" s="9">
         <v>14</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="19">
+        <v>43748</v>
+      </c>
       <c r="G24" s="14"/>
       <c r="H24" s="13"/>
     </row>
@@ -7329,7 +7363,7 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="13"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="13"/>
@@ -7342,7 +7376,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="13"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="13"/>
@@ -7355,7 +7389,7 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="13"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="13"/>
@@ -7368,7 +7402,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="13"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="13"/>
@@ -7378,7 +7412,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="13"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="13"/>
@@ -7388,7 +7422,7 @@
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="13"/>
@@ -7398,7 +7432,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="13"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="13"/>
@@ -7408,7 +7442,7 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="13"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="13"/>
@@ -7418,7 +7452,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="13"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="13"/>
@@ -7428,7 +7462,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="13"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="13"/>
@@ -7438,7 +7472,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="13"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="13"/>
@@ -7448,7 +7482,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="13"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="13"/>
@@ -7458,7 +7492,7 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="13"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="13"/>
@@ -7468,7 +7502,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="13"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="13"/>
@@ -17098,82 +17132,82 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="14" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="containsBlanks" dxfId="13" priority="24">
+    <cfRule type="containsBlanks" dxfId="12" priority="24">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+  <conditionalFormatting sqref="E23:E38">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+  <conditionalFormatting sqref="E23:E38">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="containsBlanks" dxfId="10" priority="12">
+  <conditionalFormatting sqref="E23:E38">
+    <cfRule type="containsBlanks" dxfId="9" priority="12">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
+    <cfRule type="containsBlanks" dxfId="6" priority="9">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E23" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E38" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFB973F-A921-4478-B5B8-0C95F7B2A864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB92021-E092-42FC-B150-32D953328736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="69">
   <si>
     <t>Bug Log</t>
   </si>
@@ -229,6 +229,15 @@
   <si>
     <t>Unresolved</t>
   </si>
+  <si>
+    <t>Bidding</t>
+  </si>
+  <si>
+    <t>Selecting 2 sections of the same course to cart only displays 1 of the sections in final cart</t>
+  </si>
+  <si>
+    <t>Error message appears when bid with no amount stated</t>
+  </si>
 </sst>
 </file>
 
@@ -380,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -490,6 +499,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1013,34 +1025,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A10" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="39" customWidth="1"/>
     <col min="3" max="3" width="18.109375" style="24" customWidth="1"/>
     <col min="4" max="4" width="74.5546875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="39" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" style="21" customWidth="1"/>
     <col min="8" max="8" width="34.5546875" style="21" customWidth="1"/>
     <col min="9" max="16384" width="14.44140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
@@ -1072,7 +1084,7 @@
       <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="39">
         <v>1</v>
       </c>
       <c r="C3" s="24" t="s">
@@ -1081,14 +1093,14 @@
       <c r="D3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="39">
         <f t="shared" ref="F3:F199" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="41">
         <f>SUM(F3:F21)</f>
         <v>97</v>
       </c>
@@ -1101,7 +1113,7 @@
       <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="39">
         <v>1</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -1110,21 +1122,21 @@
       <c r="D4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
       <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="39">
         <v>1</v>
       </c>
       <c r="C5" s="24" t="s">
@@ -1133,21 +1145,21 @@
       <c r="D5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="39">
         <v>1</v>
       </c>
       <c r="C6" s="25" t="s">
@@ -1156,21 +1168,21 @@
       <c r="D6" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
       <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="39">
         <v>1</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -1179,21 +1191,21 @@
       <c r="D7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="39">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27">
         <v>6</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="39">
         <v>1</v>
       </c>
       <c r="C8" s="25" t="s">
@@ -1202,21 +1214,21 @@
       <c r="D8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="40"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
       <c r="A9" s="27">
         <v>7</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="39">
         <v>1</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -1225,21 +1237,21 @@
       <c r="D9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="40"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
       <c r="A10" s="27">
         <v>8</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="39">
         <v>1</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -1248,21 +1260,21 @@
       <c r="D10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="39">
         <v>1</v>
       </c>
       <c r="C11" s="30" t="s">
@@ -1271,21 +1283,21 @@
       <c r="D11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="20">
         <v>10</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="39">
         <v>1</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -1294,21 +1306,21 @@
       <c r="D12" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="40"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="20">
         <v>11</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="39">
         <v>1</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -1317,21 +1329,21 @@
       <c r="D13" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="40"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="39">
         <v>1</v>
       </c>
       <c r="C14" s="30" t="s">
@@ -1340,20 +1352,20 @@
       <c r="D14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="39">
         <v>1</v>
       </c>
-      <c r="G14" s="40"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="20">
         <v>13</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="39">
         <v>1</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -1362,20 +1374,20 @@
       <c r="D15" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="39">
         <v>5</v>
       </c>
-      <c r="G15" s="40"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="39">
         <v>1</v>
       </c>
       <c r="C16" s="30" t="s">
@@ -1384,20 +1396,20 @@
       <c r="D16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="39">
         <v>1</v>
       </c>
-      <c r="G16" s="40"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
       <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="39">
         <v>1</v>
       </c>
       <c r="C17" s="30" t="s">
@@ -1406,20 +1418,20 @@
       <c r="D17" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="39">
         <v>5</v>
       </c>
-      <c r="G17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="39">
         <v>1</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -1428,20 +1440,20 @@
       <c r="D18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="39">
         <v>5</v>
       </c>
-      <c r="G18" s="40"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="39">
         <v>1</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -1450,20 +1462,20 @@
       <c r="D19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="39">
         <v>10</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="20">
         <v>18</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="39">
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -1472,20 +1484,20 @@
       <c r="D20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="39">
         <v>5</v>
       </c>
-      <c r="G20" s="40"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A21" s="20">
         <v>19</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="39">
         <v>1</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -1494,20 +1506,20 @@
       <c r="D21" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="39">
         <v>5</v>
       </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
       <c r="A22" s="20">
         <v>20</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="39">
         <v>2</v>
       </c>
       <c r="C22" s="25" t="s">
@@ -1516,10 +1528,10 @@
       <c r="D22" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="39">
         <v>5</v>
       </c>
       <c r="H22" s="24"/>
@@ -1537,10 +1549,10 @@
       <c r="D23" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="39">
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>10</v>
       </c>
@@ -1552,7 +1564,7 @@
       <c r="A24" s="20">
         <v>22</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="39">
         <v>2</v>
       </c>
       <c r="C24" s="24" t="s">
@@ -1561,10 +1573,10 @@
       <c r="D24" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="39">
         <v>1</v>
       </c>
     </row>
@@ -1572,11 +1584,41 @@
       <c r="A25" s="20">
         <v>23</v>
       </c>
+      <c r="B25" s="39">
+        <v>2</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="39">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
       <c r="A26" s="20">
         <v>24</v>
       </c>
+      <c r="B26" s="39">
+        <v>2</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
       <c r="A27" s="20">
@@ -1593,8 +1635,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="26"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20" t="str">
+      <c r="F29" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1604,8 +1645,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="26"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20" t="str">
+      <c r="F30" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1615,8 +1655,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="26"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20" t="str">
+      <c r="F31" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1626,8 +1665,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20" t="str">
+      <c r="F32" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1637,8 +1675,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20" t="str">
+      <c r="F33" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1648,8 +1685,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="26"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20" t="str">
+      <c r="F34" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1659,8 +1695,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="26"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20" t="str">
+      <c r="F35" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1670,8 +1705,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="26"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20" t="str">
+      <c r="F36" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1681,8 +1715,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="26"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20" t="str">
+      <c r="F37" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1692,8 +1725,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="26"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20" t="str">
+      <c r="F38" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1703,8 +1735,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="26"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20" t="str">
+      <c r="F39" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1714,8 +1745,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="26"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20" t="str">
+      <c r="F40" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1725,8 +1755,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="26"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20" t="str">
+      <c r="F41" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1736,8 +1765,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="26"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20" t="str">
+      <c r="F42" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1747,8 +1775,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="26"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20" t="str">
+      <c r="F43" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1758,8 +1785,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="26"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20" t="str">
+      <c r="F44" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1769,8 +1795,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="26"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20" t="str">
+      <c r="F45" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1780,8 +1805,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="26"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20" t="str">
+      <c r="F46" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1791,8 +1815,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="26"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20" t="str">
+      <c r="F47" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1802,8 +1825,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="26"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20" t="str">
+      <c r="F48" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1813,8 +1835,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="26"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20" t="str">
+      <c r="F49" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1824,8 +1845,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="26"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20" t="str">
+      <c r="F50" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1835,8 +1855,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="26"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20" t="str">
+      <c r="F51" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1846,8 +1865,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="26"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20" t="str">
+      <c r="F52" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1857,8 +1875,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="26"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20" t="str">
+      <c r="F53" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1868,8 +1885,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="26"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20" t="str">
+      <c r="F54" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1879,8 +1895,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="26"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20" t="str">
+      <c r="F55" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1890,8 +1905,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="26"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20" t="str">
+      <c r="F56" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1901,8 +1915,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="26"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20" t="str">
+      <c r="F57" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1912,8 +1925,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="26"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20" t="str">
+      <c r="F58" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1923,8 +1935,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="26"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20" t="str">
+      <c r="F59" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1934,8 +1945,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="26"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20" t="str">
+      <c r="F60" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1945,8 +1955,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="26"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20" t="str">
+      <c r="F61" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1956,8 +1965,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="26"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20" t="str">
+      <c r="F62" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1967,8 +1975,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="26"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20" t="str">
+      <c r="F63" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1978,8 +1985,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="26"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20" t="str">
+      <c r="F64" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1989,8 +1995,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="26"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20" t="str">
+      <c r="F65" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2000,8 +2005,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="26"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20" t="str">
+      <c r="F66" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2011,8 +2015,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="26"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20" t="str">
+      <c r="F67" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2022,8 +2025,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="26"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20" t="str">
+      <c r="F68" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2033,8 +2035,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="26"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20" t="str">
+      <c r="F69" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2044,8 +2045,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="26"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20" t="str">
+      <c r="F70" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2055,8 +2055,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="26"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20" t="str">
+      <c r="F71" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2066,8 +2065,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="26"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20" t="str">
+      <c r="F72" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2077,8 +2075,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="26"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20" t="str">
+      <c r="F73" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2088,8 +2085,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="26"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20" t="str">
+      <c r="F74" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2099,8 +2095,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="26"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20" t="str">
+      <c r="F75" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2110,8 +2105,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="26"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20" t="str">
+      <c r="F76" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2121,8 +2115,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="26"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20" t="str">
+      <c r="F77" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2132,8 +2125,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="26"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20" t="str">
+      <c r="F78" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2143,8 +2135,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="26"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20" t="str">
+      <c r="F79" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2154,8 +2145,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="26"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20" t="str">
+      <c r="F80" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2165,8 +2155,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="26"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20" t="str">
+      <c r="F81" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2176,8 +2165,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="26"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20" t="str">
+      <c r="F82" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2187,8 +2175,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="26"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20" t="str">
+      <c r="F83" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2198,8 +2185,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="26"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20" t="str">
+      <c r="F84" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2209,8 +2195,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="26"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20" t="str">
+      <c r="F85" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2220,8 +2205,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="26"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20" t="str">
+      <c r="F86" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2231,8 +2215,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="26"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20" t="str">
+      <c r="F87" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2242,8 +2225,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="26"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20" t="str">
+      <c r="F88" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2253,8 +2235,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="26"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20" t="str">
+      <c r="F89" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2264,8 +2245,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="26"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20" t="str">
+      <c r="F90" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2275,8 +2255,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="26"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20" t="str">
+      <c r="F91" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2286,8 +2265,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="26"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20" t="str">
+      <c r="F92" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2297,8 +2275,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="26"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20" t="str">
+      <c r="F93" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2308,8 +2285,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="26"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20" t="str">
+      <c r="F94" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2319,8 +2295,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="26"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20" t="str">
+      <c r="F95" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2330,8 +2305,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="26"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20" t="str">
+      <c r="F96" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2341,8 +2315,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="26"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20" t="str">
+      <c r="F97" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2352,8 +2325,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="26"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20" t="str">
+      <c r="F98" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2363,8 +2335,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="26"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20" t="str">
+      <c r="F99" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2374,8 +2345,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="26"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20" t="str">
+      <c r="F100" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2385,8 +2355,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="26"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20" t="str">
+      <c r="F101" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2396,8 +2365,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="26"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20" t="str">
+      <c r="F102" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2407,8 +2375,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="26"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20" t="str">
+      <c r="F103" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2418,8 +2385,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="26"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20" t="str">
+      <c r="F104" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2429,8 +2395,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="26"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20" t="str">
+      <c r="F105" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2440,8 +2405,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="26"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20" t="str">
+      <c r="F106" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2451,8 +2415,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="26"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20" t="str">
+      <c r="F107" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2462,8 +2425,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="26"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20" t="str">
+      <c r="F108" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2473,8 +2435,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="26"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20" t="str">
+      <c r="F109" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2484,8 +2445,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="26"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20" t="str">
+      <c r="F110" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2495,8 +2455,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="26"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20" t="str">
+      <c r="F111" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2506,8 +2465,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="26"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20" t="str">
+      <c r="F112" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2517,8 +2475,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="26"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20" t="str">
+      <c r="F113" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2528,8 +2485,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="26"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20" t="str">
+      <c r="F114" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2539,8 +2495,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="26"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20" t="str">
+      <c r="F115" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2550,8 +2505,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="26"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20" t="str">
+      <c r="F116" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2561,8 +2515,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="26"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20" t="str">
+      <c r="F117" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2572,8 +2525,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="26"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20" t="str">
+      <c r="F118" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2583,8 +2535,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="26"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20" t="str">
+      <c r="F119" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2594,8 +2545,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="26"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="20" t="str">
+      <c r="F120" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2605,8 +2555,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="26"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20" t="str">
+      <c r="F121" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2616,8 +2565,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="26"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20" t="str">
+      <c r="F122" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2627,8 +2575,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="26"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20" t="str">
+      <c r="F123" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2638,8 +2585,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="26"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20" t="str">
+      <c r="F124" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2649,8 +2595,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="26"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20" t="str">
+      <c r="F125" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2660,8 +2605,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="26"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20" t="str">
+      <c r="F126" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2671,8 +2615,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="26"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="20" t="str">
+      <c r="F127" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2682,8 +2625,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="26"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="20" t="str">
+      <c r="F128" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2693,8 +2635,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="26"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="20" t="str">
+      <c r="F129" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2704,8 +2645,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="26"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="20" t="str">
+      <c r="F130" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2715,8 +2655,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="26"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20" t="str">
+      <c r="F131" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2726,8 +2665,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="26"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20" t="str">
+      <c r="F132" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2737,8 +2675,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="26"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="20" t="str">
+      <c r="F133" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2748,8 +2685,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="20" t="str">
+      <c r="F134" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2759,8 +2695,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="26"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20" t="str">
+      <c r="F135" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2770,8 +2705,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="26"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="20" t="str">
+      <c r="F136" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2781,8 +2715,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="26"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20" t="str">
+      <c r="F137" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2792,8 +2725,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="26"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="20" t="str">
+      <c r="F138" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2803,8 +2735,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="26"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="20" t="str">
+      <c r="F139" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2814,8 +2745,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="26"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="20" t="str">
+      <c r="F140" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2825,8 +2755,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="26"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="20" t="str">
+      <c r="F141" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2836,8 +2765,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="26"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="20" t="str">
+      <c r="F142" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2847,8 +2775,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="26"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="20" t="str">
+      <c r="F143" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2858,8 +2785,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="26"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="20" t="str">
+      <c r="F144" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2869,8 +2795,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="26"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="20" t="str">
+      <c r="F145" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2880,8 +2805,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="26"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="20" t="str">
+      <c r="F146" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2891,8 +2815,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="26"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="20" t="str">
+      <c r="F147" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2902,8 +2825,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="26"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="20" t="str">
+      <c r="F148" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2913,8 +2835,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="26"/>
-      <c r="E149" s="20"/>
-      <c r="F149" s="20" t="str">
+      <c r="F149" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2924,8 +2845,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="26"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="20" t="str">
+      <c r="F150" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2935,8 +2855,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="26"/>
-      <c r="E151" s="20"/>
-      <c r="F151" s="20" t="str">
+      <c r="F151" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2946,8 +2865,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="26"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="20" t="str">
+      <c r="F152" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2957,8 +2875,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="26"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20" t="str">
+      <c r="F153" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2968,8 +2885,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="26"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="20" t="str">
+      <c r="F154" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2979,8 +2895,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="26"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="20" t="str">
+      <c r="F155" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2990,8 +2905,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="26"/>
-      <c r="E156" s="20"/>
-      <c r="F156" s="20" t="str">
+      <c r="F156" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3001,8 +2915,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="26"/>
-      <c r="E157" s="20"/>
-      <c r="F157" s="20" t="str">
+      <c r="F157" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3012,8 +2925,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="26"/>
-      <c r="E158" s="20"/>
-      <c r="F158" s="20" t="str">
+      <c r="F158" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3023,8 +2935,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="26"/>
-      <c r="E159" s="20"/>
-      <c r="F159" s="20" t="str">
+      <c r="F159" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3034,8 +2945,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="26"/>
-      <c r="E160" s="20"/>
-      <c r="F160" s="20" t="str">
+      <c r="F160" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3045,8 +2955,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="26"/>
-      <c r="E161" s="20"/>
-      <c r="F161" s="20" t="str">
+      <c r="F161" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3056,8 +2965,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="26"/>
-      <c r="E162" s="20"/>
-      <c r="F162" s="20" t="str">
+      <c r="F162" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3067,8 +2975,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="26"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20" t="str">
+      <c r="F163" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3078,8 +2985,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="26"/>
-      <c r="E164" s="20"/>
-      <c r="F164" s="20" t="str">
+      <c r="F164" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3089,8 +2995,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="26"/>
-      <c r="E165" s="20"/>
-      <c r="F165" s="20" t="str">
+      <c r="F165" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3100,8 +3005,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="26"/>
-      <c r="E166" s="20"/>
-      <c r="F166" s="20" t="str">
+      <c r="F166" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3111,8 +3015,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="26"/>
-      <c r="E167" s="20"/>
-      <c r="F167" s="20" t="str">
+      <c r="F167" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3122,8 +3025,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="26"/>
-      <c r="E168" s="20"/>
-      <c r="F168" s="20" t="str">
+      <c r="F168" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3133,8 +3035,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="26"/>
-      <c r="E169" s="20"/>
-      <c r="F169" s="20" t="str">
+      <c r="F169" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3144,8 +3045,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="26"/>
-      <c r="E170" s="20"/>
-      <c r="F170" s="20" t="str">
+      <c r="F170" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3155,8 +3055,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="26"/>
-      <c r="E171" s="20"/>
-      <c r="F171" s="20" t="str">
+      <c r="F171" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3166,8 +3065,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="26"/>
-      <c r="E172" s="20"/>
-      <c r="F172" s="20" t="str">
+      <c r="F172" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3177,8 +3075,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="26"/>
-      <c r="E173" s="20"/>
-      <c r="F173" s="20" t="str">
+      <c r="F173" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3188,8 +3085,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="26"/>
-      <c r="E174" s="20"/>
-      <c r="F174" s="20" t="str">
+      <c r="F174" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3199,8 +3095,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="26"/>
-      <c r="E175" s="20"/>
-      <c r="F175" s="20" t="str">
+      <c r="F175" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3210,8 +3105,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="26"/>
-      <c r="E176" s="20"/>
-      <c r="F176" s="20" t="str">
+      <c r="F176" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3221,8 +3115,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="26"/>
-      <c r="E177" s="20"/>
-      <c r="F177" s="20" t="str">
+      <c r="F177" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3232,8 +3125,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="26"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="20" t="str">
+      <c r="F178" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3243,8 +3135,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="26"/>
-      <c r="E179" s="20"/>
-      <c r="F179" s="20" t="str">
+      <c r="F179" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3254,8 +3145,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="26"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20" t="str">
+      <c r="F180" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3265,8 +3155,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="26"/>
-      <c r="E181" s="20"/>
-      <c r="F181" s="20" t="str">
+      <c r="F181" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3276,8 +3165,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="26"/>
-      <c r="E182" s="20"/>
-      <c r="F182" s="20" t="str">
+      <c r="F182" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3287,8 +3175,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="26"/>
-      <c r="E183" s="20"/>
-      <c r="F183" s="20" t="str">
+      <c r="F183" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3298,8 +3185,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="26"/>
-      <c r="E184" s="20"/>
-      <c r="F184" s="20" t="str">
+      <c r="F184" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3309,8 +3195,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="26"/>
-      <c r="E185" s="20"/>
-      <c r="F185" s="20" t="str">
+      <c r="F185" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3320,8 +3205,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="26"/>
-      <c r="E186" s="20"/>
-      <c r="F186" s="20" t="str">
+      <c r="F186" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3331,8 +3215,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="26"/>
-      <c r="E187" s="20"/>
-      <c r="F187" s="20" t="str">
+      <c r="F187" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3342,8 +3225,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="26"/>
-      <c r="E188" s="20"/>
-      <c r="F188" s="20" t="str">
+      <c r="F188" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3353,8 +3235,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="26"/>
-      <c r="E189" s="20"/>
-      <c r="F189" s="20" t="str">
+      <c r="F189" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3364,8 +3245,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="26"/>
-      <c r="E190" s="20"/>
-      <c r="F190" s="20" t="str">
+      <c r="F190" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3375,8 +3255,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="26"/>
-      <c r="E191" s="20"/>
-      <c r="F191" s="20" t="str">
+      <c r="F191" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3386,8 +3265,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="26"/>
-      <c r="E192" s="20"/>
-      <c r="F192" s="20" t="str">
+      <c r="F192" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3397,8 +3275,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="26"/>
-      <c r="E193" s="20"/>
-      <c r="F193" s="20" t="str">
+      <c r="F193" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3408,8 +3285,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="26"/>
-      <c r="E194" s="20"/>
-      <c r="F194" s="20" t="str">
+      <c r="F194" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3419,8 +3295,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="26"/>
-      <c r="E195" s="20"/>
-      <c r="F195" s="20" t="str">
+      <c r="F195" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3430,8 +3305,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="26"/>
-      <c r="E196" s="20"/>
-      <c r="F196" s="20" t="str">
+      <c r="F196" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3441,8 +3315,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="26"/>
-      <c r="E197" s="20"/>
-      <c r="F197" s="20" t="str">
+      <c r="F197" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3452,8 +3325,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="26"/>
-      <c r="E198" s="20"/>
-      <c r="F198" s="20" t="str">
+      <c r="F198" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3463,8 +3335,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="26"/>
-      <c r="E199" s="20"/>
-      <c r="F199" s="20" t="str">
+      <c r="F199" s="39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -6692,8 +6563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6710,16 +6581,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
@@ -7338,7 +7209,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>63</v>
@@ -7355,29 +7226,49 @@
       <c r="G24" s="14"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <f>'Bug Metrics'!$A25</f>
         <v>23</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="14"/>
+      <c r="B25" s="39">
+        <v>2</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="14">
+        <v>43749</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <f>'Bug Metrics'!$A26</f>
         <v>24</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="14"/>
+      <c r="B26" s="39">
+        <v>2</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="14">
+        <v>43749</v>
+      </c>
       <c r="G26" s="14"/>
       <c r="H26" s="13"/>
     </row>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB92021-E092-42FC-B150-32D953328736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD3A251-E23C-4005-B355-9645C29BD67B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="69">
   <si>
     <t>Bug Log</t>
   </si>
@@ -6564,7 +6564,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7218,13 +7218,17 @@
         <v>64</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F24" s="19">
         <v>43748</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="13"/>
+      <c r="G24" s="14">
+        <v>43749</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A25" s="9">

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD3A251-E23C-4005-B355-9645C29BD67B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA16478-1D6D-41EC-A507-9538A5C16F04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="70">
   <si>
     <t>Bug Log</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Error message appears when bid with no amount stated</t>
+  </si>
+  <si>
+    <t>Inaccurate reflection when 2 or more of the same section is selected to cart</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1101,12 +1104,11 @@
         <v>5</v>
       </c>
       <c r="G3" s="41">
-        <f>SUM(F3:F21)</f>
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="H3" s="24" t="str">
         <f xml:space="preserve"> IF(G3&lt;10,Instructions!B7,Instructions!B8)</f>
-        <v>Stop current development and resolve the bug immediately. Project Manager reschedules the project.</v>
+        <v>Use the planned debugging time in the iteration.</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
@@ -1534,6 +1536,9 @@
       <c r="F22" s="39">
         <v>5</v>
       </c>
+      <c r="G22" s="41">
+        <v>0</v>
+      </c>
       <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
@@ -1556,6 +1561,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>10</v>
       </c>
+      <c r="G23" s="41"/>
       <c r="H23" s="37" t="s">
         <v>23</v>
       </c>
@@ -1579,6 +1585,9 @@
       <c r="F24" s="39">
         <v>1</v>
       </c>
+      <c r="G24" s="41">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
       <c r="A25" s="20">
@@ -1599,6 +1608,7 @@
       <c r="F25" s="39">
         <v>5</v>
       </c>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
       <c r="A26" s="20">
@@ -1619,10 +1629,30 @@
       <c r="F26" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
+      <c r="G26" s="41"/>
+    </row>
+    <row r="27" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="20">
         <v>25</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="39">
+        <v>5</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="37" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">
@@ -6541,9 +6571,11 @@
       <c r="B999" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G3:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G27"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Stop current Development">
@@ -6563,8 +6595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7281,11 +7313,21 @@
         <f>'Bug Metrics'!$A27</f>
         <v>25</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="14"/>
+      <c r="B27" s="9">
+        <v>2</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="14">
+        <v>43749</v>
+      </c>
       <c r="G27" s="14"/>
       <c r="H27" s="13"/>
     </row>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA16478-1D6D-41EC-A507-9538A5C16F04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0111DFE-B230-4F58-8021-9827B6CA40BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:H999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="41">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.4">

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD95DA8B-BED9-483E-88CE-36C182B233A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39EC239-A1AF-4EC5-A974-16F56294ADC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="75">
   <si>
     <t>Bug Log</t>
   </si>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A19" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6647,8 +6647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D33"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7416,7 +7416,9 @@
       <c r="C29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="E29" s="38" t="s">
         <v>65</v>
       </c>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39EC239-A1AF-4EC5-A974-16F56294ADC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7133677D-60C1-4BB8-8FBA-DC2020AC7B09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="76">
   <si>
     <t>Bug Log</t>
   </si>
@@ -256,6 +256,9 @@
   <si>
     <t>Delete Bid</t>
   </si>
+  <si>
+    <t xml:space="preserve">Failed to delete bid. Successful deletion message shows even before user selects section to delete. </t>
+  </si>
 </sst>
 </file>
 
@@ -380,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -403,11 +406,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -532,6 +550,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,7 +1065,7 @@
   <dimension ref="A1:H999"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1732,14 +1753,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>29</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="F31" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B31" s="26">
+        <v>2</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="39">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -6648,7 +6680,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C30" sqref="C30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7428,7 +7460,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>28</v>
       </c>
@@ -7438,9 +7470,15 @@
       <c r="C30" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="14"/>
+      <c r="D30" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>73</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="13"/>
     </row>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7133677D-60C1-4BB8-8FBA-DC2020AC7B09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF30280-BD80-4EAB-9C6F-CD745E6EC9B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="76">
   <si>
     <t>Bug Log</t>
   </si>
@@ -540,6 +540,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,9 +553,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A23" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1082,16 +1082,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -1139,7 +1139,7 @@
         <f t="shared" ref="F3:F199" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="42">
         <v>0</v>
       </c>
       <c r="H3" s="24" t="str">
@@ -1167,7 +1167,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -1259,7 +1259,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="41"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="41"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -1305,7 +1305,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="41"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -1328,7 +1328,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="41"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -1351,7 +1351,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="41"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -1374,7 +1374,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="41"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -1396,7 +1396,7 @@
       <c r="F14" s="39">
         <v>1</v>
       </c>
-      <c r="G14" s="41"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -1418,7 +1418,7 @@
       <c r="F15" s="39">
         <v>5</v>
       </c>
-      <c r="G15" s="41"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -1440,7 +1440,7 @@
       <c r="F16" s="39">
         <v>1</v>
       </c>
-      <c r="G16" s="41"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
       <c r="F17" s="39">
         <v>5</v>
       </c>
-      <c r="G17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -1484,7 +1484,7 @@
       <c r="F18" s="39">
         <v>5</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -1506,7 +1506,7 @@
       <c r="F19" s="39">
         <v>10</v>
       </c>
-      <c r="G19" s="41"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -1528,7 +1528,7 @@
       <c r="F20" s="39">
         <v>5</v>
       </c>
-      <c r="G20" s="41"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.25">
@@ -1550,7 +1550,7 @@
       <c r="F21" s="39">
         <v>5</v>
       </c>
-      <c r="G21" s="41"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
       <c r="F22" s="39">
         <v>5</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="42">
         <v>0</v>
       </c>
       <c r="H22" s="24"/>
@@ -1597,7 +1597,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>10</v>
       </c>
-      <c r="G23" s="41"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="37" t="s">
         <v>23</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="F24" s="39">
         <v>1</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="42">
         <v>0</v>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       <c r="F25" s="39">
         <v>5</v>
       </c>
-      <c r="G25" s="41"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
@@ -1665,7 +1665,7 @@
       <c r="F26" s="39">
         <v>1</v>
       </c>
-      <c r="G26" s="41"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
@@ -1686,7 +1686,7 @@
       <c r="F27" s="39">
         <v>5</v>
       </c>
-      <c r="G27" s="41"/>
+      <c r="G27" s="42"/>
       <c r="H27" s="37" t="s">
         <v>23</v>
       </c>
@@ -1763,7 +1763,7 @@
       <c r="C31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="40" t="s">
         <v>75</v>
       </c>
       <c r="E31" s="39" t="s">
@@ -6679,8 +6679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:D30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6697,16 +6697,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -7470,17 +7470,21 @@
       <c r="C30" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="40" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="13"/>
+      <c r="G30" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ong Yan Ning\Desktop\SMU\Academic\Year 2 Term 1\IS212 - Software Project Management\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ong Yan Ning\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B28BE53-C9AE-47CC-A056-38C2CE923969}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449ED0F2-AB9F-4A14-95A2-063021424450}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="79">
   <si>
     <t>Bug Log</t>
   </si>
@@ -257,6 +257,9 @@
   <si>
     <t>Errors when updating bid - non numeric value encountered</t>
   </si>
+  <si>
+    <t>Errors when updating bid - uncaught argument count error due to too few arguments to function BidDAO.</t>
+  </si>
 </sst>
 </file>
 
@@ -408,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -523,6 +526,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,7 +539,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1089,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1107,16 +1122,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -1164,7 +1179,7 @@
         <f t="shared" ref="F3:F199" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="42">
         <v>0</v>
       </c>
       <c r="H3" s="24" t="str">
@@ -1192,7 +1207,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1215,7 +1230,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1238,7 +1253,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1261,7 +1276,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1284,7 +1299,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="41"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1307,7 +1322,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="41"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1330,7 +1345,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="41"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1353,7 +1368,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="41"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1376,7 +1391,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="41"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1399,7 +1414,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="41"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1421,7 +1436,7 @@
       <c r="F14" s="39">
         <v>1</v>
       </c>
-      <c r="G14" s="41"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1443,7 +1458,7 @@
       <c r="F15" s="39">
         <v>5</v>
       </c>
-      <c r="G15" s="41"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1465,7 +1480,7 @@
       <c r="F16" s="39">
         <v>1</v>
       </c>
-      <c r="G16" s="41"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1487,7 +1502,7 @@
       <c r="F17" s="39">
         <v>5</v>
       </c>
-      <c r="G17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1509,7 +1524,7 @@
       <c r="F18" s="39">
         <v>5</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1531,7 +1546,7 @@
       <c r="F19" s="39">
         <v>10</v>
       </c>
-      <c r="G19" s="41"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1553,7 +1568,7 @@
       <c r="F20" s="39">
         <v>5</v>
       </c>
-      <c r="G20" s="41"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1575,7 +1590,7 @@
       <c r="F21" s="39">
         <v>5</v>
       </c>
-      <c r="G21" s="41"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1597,7 +1612,7 @@
       <c r="F22" s="39">
         <v>5</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="42">
         <v>0</v>
       </c>
       <c r="H22" s="24"/>
@@ -1622,7 +1637,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>10</v>
       </c>
-      <c r="G23" s="41"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="37" t="s">
         <v>23</v>
       </c>
@@ -1646,7 +1661,7 @@
       <c r="F24" s="39">
         <v>1</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="42">
         <v>0</v>
       </c>
     </row>
@@ -1669,7 +1684,7 @@
       <c r="F25" s="39">
         <v>5</v>
       </c>
-      <c r="G25" s="41"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
@@ -1690,7 +1705,7 @@
       <c r="F26" s="39">
         <v>1</v>
       </c>
-      <c r="G26" s="41"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
@@ -1711,7 +1726,7 @@
       <c r="F27" s="39">
         <v>5</v>
       </c>
-      <c r="G27" s="41"/>
+      <c r="G27" s="42"/>
       <c r="H27" s="37" t="s">
         <v>23</v>
       </c>
@@ -1788,7 +1803,7 @@
       <c r="C31" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="40" t="s">
         <v>75</v>
       </c>
       <c r="E31" s="39" t="s">
@@ -1841,14 +1856,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>33</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="F34" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B34" s="26">
+        <v>2</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="39">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -6726,8 +6752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6744,16 +6770,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -7348,7 +7374,7 @@
       <c r="B23" s="9">
         <v>2</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -7367,17 +7393,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>14</v>
       </c>
       <c r="B24" s="9">
         <v>2</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="48" t="s">
         <v>64</v>
       </c>
       <c r="E24" s="38" t="s">
@@ -7401,7 +7427,7 @@
       <c r="B25" s="39">
         <v>2</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="46" t="s">
         <v>66</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -7424,7 +7450,7 @@
       <c r="B26" s="39">
         <v>2</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="46" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -7447,7 +7473,7 @@
       <c r="B27" s="9">
         <v>2</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="45" t="s">
         <v>66</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -7470,7 +7496,7 @@
       <c r="B28" s="9">
         <v>2</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="45" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="17" t="s">
@@ -7492,7 +7518,7 @@
       <c r="B29" s="9">
         <v>2</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="45" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -7514,10 +7540,10 @@
       <c r="B30" s="9">
         <v>2</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="40" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="38" t="s">
@@ -7540,20 +7566,24 @@
       <c r="B31" s="9">
         <v>2</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="45" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>76</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="13"/>
+      <c r="G31" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
@@ -7562,7 +7592,7 @@
       <c r="B32" s="9">
         <v>2</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="45" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="17" t="s">
@@ -7577,13 +7607,25 @@
       <c r="G32" s="14"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="14"/>
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>31</v>
+      </c>
+      <c r="B33" s="9">
+        <v>2</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>73</v>
+      </c>
       <c r="G33" s="14"/>
       <c r="H33" s="13"/>
     </row>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ong Yan Ning\Documents\GitHub\project-g4t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ong Yan Ning\Desktop\SMU\Academic\Year 2 Term 1\IS212 - Software Project Management\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449ED0F2-AB9F-4A14-95A2-063021424450}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F1C9D8-9964-44CF-96AA-E3065D68E69C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="80">
   <si>
     <t>Bug Log</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Errors when updating bid - uncaught argument count error due to too few arguments to function BidDAO.</t>
+  </si>
+  <si>
+    <t>Integrity constraint violation - cannot delete or update a parent row</t>
   </si>
 </sst>
 </file>
@@ -529,16 +532,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -551,6 +544,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -1122,16 +1125,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -1179,7 +1182,7 @@
         <f t="shared" ref="F3:F199" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="46">
         <v>0</v>
       </c>
       <c r="H3" s="24" t="str">
@@ -1207,7 +1210,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1230,7 +1233,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="42"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1253,7 +1256,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1276,7 +1279,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="42"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1299,7 +1302,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="42"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1322,7 +1325,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="42"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1345,7 +1348,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="42"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1368,7 +1371,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="42"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1391,7 +1394,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1414,7 +1417,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="42"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1436,7 +1439,7 @@
       <c r="F14" s="39">
         <v>1</v>
       </c>
-      <c r="G14" s="42"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1458,7 +1461,7 @@
       <c r="F15" s="39">
         <v>5</v>
       </c>
-      <c r="G15" s="42"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1480,7 +1483,7 @@
       <c r="F16" s="39">
         <v>1</v>
       </c>
-      <c r="G16" s="42"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1502,7 +1505,7 @@
       <c r="F17" s="39">
         <v>5</v>
       </c>
-      <c r="G17" s="42"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1524,7 +1527,7 @@
       <c r="F18" s="39">
         <v>5</v>
       </c>
-      <c r="G18" s="42"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1546,7 +1549,7 @@
       <c r="F19" s="39">
         <v>10</v>
       </c>
-      <c r="G19" s="42"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1568,7 +1571,7 @@
       <c r="F20" s="39">
         <v>5</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1590,7 +1593,7 @@
       <c r="F21" s="39">
         <v>5</v>
       </c>
-      <c r="G21" s="42"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1612,7 +1615,7 @@
       <c r="F22" s="39">
         <v>5</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="46">
         <v>0</v>
       </c>
       <c r="H22" s="24"/>
@@ -1637,7 +1640,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>10</v>
       </c>
-      <c r="G23" s="42"/>
+      <c r="G23" s="46"/>
       <c r="H23" s="37" t="s">
         <v>23</v>
       </c>
@@ -1661,7 +1664,7 @@
       <c r="F24" s="39">
         <v>1</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="46">
         <v>0</v>
       </c>
     </row>
@@ -1684,7 +1687,7 @@
       <c r="F25" s="39">
         <v>5</v>
       </c>
-      <c r="G25" s="42"/>
+      <c r="G25" s="46"/>
     </row>
     <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
@@ -1705,7 +1708,7 @@
       <c r="F26" s="39">
         <v>1</v>
       </c>
-      <c r="G26" s="42"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
@@ -1726,7 +1729,7 @@
       <c r="F27" s="39">
         <v>5</v>
       </c>
-      <c r="G27" s="42"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="37" t="s">
         <v>23</v>
       </c>
@@ -1881,10 +1884,21 @@
       <c r="A35" s="20">
         <v>34</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="F35" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B35" s="26">
+        <v>2</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="39">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -6752,8 +6766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6770,16 +6784,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -7374,7 +7388,7 @@
       <c r="B23" s="9">
         <v>2</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="41" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -7400,10 +7414,10 @@
       <c r="B24" s="9">
         <v>2</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="44" t="s">
         <v>64</v>
       </c>
       <c r="E24" s="38" t="s">
@@ -7427,7 +7441,7 @@
       <c r="B25" s="39">
         <v>2</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="42" t="s">
         <v>66</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -7450,7 +7464,7 @@
       <c r="B26" s="39">
         <v>2</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="42" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -7473,7 +7487,7 @@
       <c r="B27" s="9">
         <v>2</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="41" t="s">
         <v>66</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -7496,7 +7510,7 @@
       <c r="B28" s="9">
         <v>2</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="41" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="17" t="s">
@@ -7518,7 +7532,7 @@
       <c r="B29" s="9">
         <v>2</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="41" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -7540,7 +7554,7 @@
       <c r="B30" s="9">
         <v>2</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="41" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="40" t="s">
@@ -7566,7 +7580,7 @@
       <c r="B31" s="9">
         <v>2</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="41" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="15" t="s">
@@ -7592,7 +7606,7 @@
       <c r="B32" s="9">
         <v>2</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="41" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="17" t="s">
@@ -7614,7 +7628,7 @@
       <c r="B33" s="9">
         <v>2</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="41" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -7629,13 +7643,25 @@
       <c r="G33" s="14"/>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="14"/>
+    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>32</v>
+      </c>
+      <c r="B34" s="26">
+        <v>2</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="19">
+        <v>43754</v>
+      </c>
       <c r="G34" s="14"/>
       <c r="H34" s="13"/>
     </row>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CasperLim\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4D24DB-DAFC-4C1B-9268-CE71C98E8143}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4F3D5B-E9C5-4C13-A114-1FCD86745E23}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="81">
   <si>
     <t>Bug Log</t>
   </si>
@@ -6778,7 +6778,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7528,13 +7528,17 @@
         <v>71</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="13"/>
+      <c r="G28" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
@@ -7550,13 +7554,17 @@
         <v>72</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="13"/>
+      <c r="G29" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -7624,13 +7632,17 @@
         <v>77</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="13"/>
+      <c r="G32" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="9">

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CasperLim\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4F3D5B-E9C5-4C13-A114-1FCD86745E23}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889EBBD8-E1F7-4768-A5D6-57F4EB770A42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="81">
   <si>
     <t>Bug Log</t>
   </si>
@@ -6778,7 +6778,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7482,13 +7482,17 @@
         <v>68</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F26" s="14">
         <v>43749</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="13"/>
+      <c r="G26" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="9">

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CasperLim\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889EBBD8-E1F7-4768-A5D6-57F4EB770A42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17935A8-6ABE-465C-8A07-63BA469040CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="80">
   <si>
     <t>Bug Log</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>Wrong username does not give expected output</t>
-  </si>
-  <si>
-    <t>Unresolved</t>
   </si>
   <si>
     <t>Bidding</t>
@@ -1118,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="91" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1687,10 +1684,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>27</v>
@@ -1708,10 +1705,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="39" t="s">
         <v>53</v>
@@ -1729,10 +1726,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="39" t="s">
         <v>27</v>
@@ -1756,13 +1753,16 @@
         <v>42</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="39" t="s">
         <v>53</v>
       </c>
       <c r="F28" s="39">
         <v>1</v>
+      </c>
+      <c r="G28" s="46">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
@@ -1776,7 +1776,7 @@
         <v>56</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="39" t="s">
         <v>27</v>
@@ -1785,6 +1785,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="G29" s="46"/>
     </row>
     <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="20">
@@ -1797,7 +1798,7 @@
         <v>56</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="39" t="s">
         <v>27</v>
@@ -1806,6 +1807,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="G30" s="46"/>
     </row>
     <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
@@ -1815,10 +1817,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="40" t="s">
         <v>74</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="E31" s="39" t="s">
         <v>24</v>
@@ -1827,6 +1829,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="G31" s="46"/>
     </row>
     <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="20">
@@ -1839,7 +1842,7 @@
         <v>42</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="39" t="s">
         <v>53</v>
@@ -1848,8 +1851,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G32" s="46"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="20">
         <v>32</v>
       </c>
@@ -1860,7 +1864,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="39" t="s">
         <v>27</v>
@@ -1869,8 +1873,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.25">
+      <c r="G33" s="46"/>
+    </row>
+    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>33</v>
       </c>
@@ -1881,7 +1886,7 @@
         <v>56</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34" s="39" t="s">
         <v>27</v>
@@ -1890,8 +1895,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="G34" s="46"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -1902,7 +1908,7 @@
         <v>26</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" s="39" t="s">
         <v>27</v>
@@ -1911,8 +1917,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="G35" s="46"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -1922,7 +1929,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -1932,7 +1939,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -1942,7 +1949,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>38</v>
       </c>
@@ -1952,7 +1959,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -1962,7 +1969,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -1972,7 +1979,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>41</v>
       </c>
@@ -1982,7 +1989,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>42</v>
       </c>
@@ -1992,7 +1999,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>43</v>
       </c>
@@ -2002,7 +2009,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>44</v>
       </c>
@@ -2012,7 +2019,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>45</v>
       </c>
@@ -2022,7 +2029,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>46</v>
       </c>
@@ -2032,7 +2039,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>47</v>
       </c>
@@ -6753,11 +6760,12 @@
       <c r="B999" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G3:G21"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G24:G27"/>
+    <mergeCell ref="G28:G35"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Stop current Development">
@@ -6777,8 +6785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7453,19 +7461,23 @@
         <v>2</v>
       </c>
       <c r="C25" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>67</v>
-      </c>
       <c r="E25" s="38" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F25" s="14">
         <v>43749</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="13"/>
+      <c r="G25" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
@@ -7476,10 +7488,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="38" t="s">
         <v>25</v>
@@ -7488,7 +7500,7 @@
         <v>43749</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>54</v>
@@ -7503,19 +7515,23 @@
         <v>2</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F27" s="14">
         <v>43749</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="13"/>
+      <c r="G27" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
@@ -7529,16 +7545,16 @@
         <v>56</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="38" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>54</v>
@@ -7555,16 +7571,16 @@
         <v>56</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="38" t="s">
         <v>25</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>54</v>
@@ -7578,19 +7594,19 @@
         <v>2</v>
       </c>
       <c r="C30" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="40" t="s">
         <v>74</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="E30" s="38" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>54</v>
@@ -7607,16 +7623,16 @@
         <v>42</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>58</v>
@@ -7633,16 +7649,16 @@
         <v>56</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="38" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>54</v>
@@ -7659,16 +7675,16 @@
         <v>56</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>25</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>54</v>
@@ -7685,16 +7701,20 @@
         <v>26</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F34" s="19">
         <v>43754</v>
       </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="13"/>
+      <c r="G34" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CasperLim\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5B3809-6A24-436F-AD3F-602D62C3599B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05450189-7B4D-4685-8861-35D5956CD892}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="93">
   <si>
     <t>Bug Log</t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>Round 2 update bid status is affected by other bids if there is multiple update at once</t>
+  </si>
+  <si>
+    <t>Timetable clashes when it is not suppose to clash</t>
+  </si>
+  <si>
+    <t>Bootstrap edollar validation displayed insufficient edollar despite have enough money</t>
+  </si>
+  <si>
+    <t>Exam and Class Timetable clashes when it is not suppose to clash</t>
+  </si>
+  <si>
+    <t>Minimum bid is wrong when the number of successful bid is equal to the number of vacancy</t>
   </si>
 </sst>
 </file>
@@ -593,7 +605,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1184,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2030,6 +2126,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="G37" s="46">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="20">
@@ -2050,6 +2149,7 @@
       <c r="F38" s="39">
         <v>5</v>
       </c>
+      <c r="G38" s="46"/>
     </row>
     <row r="39" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="20">
@@ -2071,35 +2171,69 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="G39" s="46"/>
     </row>
     <row r="40" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>39</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="F40" s="39" t="str">
+      <c r="B40" s="26">
+        <v>4</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="20">
         <v>40</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="F41" s="39" t="str">
+      <c r="B41" s="26">
+        <v>4</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="39">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="20">
         <v>41</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="F42" s="39" t="str">
+      <c r="B42" s="26">
+        <v>4</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
@@ -6873,7 +7007,8 @@
       <c r="B999" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="G37:G39"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G3:G21"/>
     <mergeCell ref="G22:G23"/>
@@ -6881,7 +7016,7 @@
     <mergeCell ref="G28:G36"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6898,8 +7033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7843,13 +7978,17 @@
         <v>80</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="F35" s="19">
         <v>43754</v>
       </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="13"/>
+      <c r="G35" s="19">
+        <v>43774</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
@@ -7887,13 +8026,17 @@
         <v>80</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="F37" s="19">
         <v>43754</v>
       </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="13"/>
+      <c r="G37" s="19">
+        <v>43774</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
@@ -7909,7 +8052,7 @@
         <v>83</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>84</v>
@@ -7974,34 +8117,78 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="13"/>
-    </row>
-    <row r="42" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
+      <c r="A41" s="9">
+        <v>39</v>
+      </c>
+      <c r="B41" s="9">
+        <v>4</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="19">
+        <v>43774</v>
+      </c>
+      <c r="G41" s="19">
+        <v>43774</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
+        <v>40</v>
+      </c>
+      <c r="B42" s="9">
+        <v>4</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="19">
+        <v>43774</v>
+      </c>
       <c r="G42" s="14"/>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="13"/>
+    <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
+        <v>41</v>
+      </c>
+      <c r="B43" s="9">
+        <v>4</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="19">
+        <v>43774</v>
+      </c>
+      <c r="G43" s="19">
+        <v>43774</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="9"/>
@@ -17578,142 +17765,187 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="containsBlanks" dxfId="24" priority="36">
+    <cfRule type="containsBlanks" dxfId="36" priority="45">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30 E33:E38">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30 E33:E38">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30 E33:E38">
-    <cfRule type="containsBlanks" dxfId="21" priority="24">
+    <cfRule type="containsBlanks" dxfId="33" priority="33">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="18" priority="21">
+    <cfRule type="containsBlanks" dxfId="30" priority="30">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="15" priority="18">
+    <cfRule type="containsBlanks" dxfId="27" priority="27">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="12" priority="15">
+    <cfRule type="containsBlanks" dxfId="24" priority="24">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsBlanks" dxfId="9" priority="12">
+    <cfRule type="containsBlanks" dxfId="21" priority="21">
       <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="containsBlanks" dxfId="18" priority="18">
+      <formula>LEN(TRIM(E32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="containsBlanks" dxfId="15" priority="15">
+      <formula>LEN(TRIM(E39))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="containsBlanks" dxfId="12" priority="12">
+      <formula>LEN(TRIM(E40))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E41">
     <cfRule type="containsBlanks" dxfId="6" priority="9">
-      <formula>LEN(TRIM(E32))=0</formula>
+      <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E42">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E42">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E42">
     <cfRule type="containsBlanks" dxfId="3" priority="6">
-      <formula>LEN(TRIM(E39))=0</formula>
+      <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E43">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E43">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E43">
     <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E40))=0</formula>
+      <formula>LEN(TRIM(E43))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E40" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E43" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ong Yan Ning\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0A60D7-8308-4839-BDC3-D6E6F1199D54}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8062FD-CEDE-4BFC-987F-BED745BCDA6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="96">
   <si>
     <t>Bug Log</t>
   </si>
@@ -313,6 +313,12 @@
   <si>
     <t>Errors prompted when users try to place bids in inactive round (when admin hasn't bootstrap to start the rounds)</t>
   </si>
+  <si>
+    <t>Errors prompted in students interface after starting round 2</t>
+  </si>
+  <si>
+    <t>Bootstrap edollar validation displayed insufficient edollar despite having enough money</t>
+  </si>
 </sst>
 </file>
 
@@ -464,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -600,6 +606,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -611,7 +620,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="43">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1286,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1304,16 +1334,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -1361,7 +1391,7 @@
         <f t="shared" ref="F3:F199" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="47">
         <v>0</v>
       </c>
       <c r="H3" s="24" t="str">
@@ -1389,7 +1419,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="46"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1412,7 +1442,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="46"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1435,7 +1465,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="46"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1458,7 +1488,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1481,7 +1511,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1504,7 +1534,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="46"/>
+      <c r="G9" s="47"/>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1527,7 +1557,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="46"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1550,7 +1580,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1573,7 +1603,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="46"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1596,7 +1626,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="46"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1618,7 +1648,7 @@
       <c r="F14" s="39">
         <v>1</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1640,7 +1670,7 @@
       <c r="F15" s="39">
         <v>5</v>
       </c>
-      <c r="G15" s="46"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1662,7 +1692,7 @@
       <c r="F16" s="39">
         <v>1</v>
       </c>
-      <c r="G16" s="46"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1684,7 +1714,7 @@
       <c r="F17" s="39">
         <v>5</v>
       </c>
-      <c r="G17" s="46"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1706,7 +1736,7 @@
       <c r="F18" s="39">
         <v>5</v>
       </c>
-      <c r="G18" s="46"/>
+      <c r="G18" s="47"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1728,7 +1758,7 @@
       <c r="F19" s="39">
         <v>10</v>
       </c>
-      <c r="G19" s="46"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1750,7 +1780,7 @@
       <c r="F20" s="39">
         <v>5</v>
       </c>
-      <c r="G20" s="46"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1772,7 +1802,7 @@
       <c r="F21" s="39">
         <v>5</v>
       </c>
-      <c r="G21" s="46"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1794,7 +1824,7 @@
       <c r="F22" s="39">
         <v>5</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="47">
         <v>0</v>
       </c>
       <c r="H22" s="24"/>
@@ -1819,7 +1849,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>10</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="47"/>
       <c r="H23" s="37" t="s">
         <v>23</v>
       </c>
@@ -1843,7 +1873,7 @@
       <c r="F24" s="39">
         <v>1</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="47">
         <v>0</v>
       </c>
     </row>
@@ -1866,7 +1896,7 @@
       <c r="F25" s="39">
         <v>5</v>
       </c>
-      <c r="G25" s="46"/>
+      <c r="G25" s="47"/>
     </row>
     <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
@@ -1887,7 +1917,7 @@
       <c r="F26" s="39">
         <v>1</v>
       </c>
-      <c r="G26" s="46"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
@@ -1908,7 +1938,7 @@
       <c r="F27" s="39">
         <v>5</v>
       </c>
-      <c r="G27" s="46"/>
+      <c r="G27" s="47"/>
       <c r="H27" s="37" t="s">
         <v>23</v>
       </c>
@@ -1932,7 +1962,7 @@
       <c r="F28" s="39">
         <v>1</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="47">
         <v>0</v>
       </c>
     </row>
@@ -1956,7 +1986,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="46"/>
+      <c r="G29" s="47"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
@@ -1978,7 +2008,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="46"/>
+      <c r="G30" s="47"/>
     </row>
     <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
@@ -2000,7 +2030,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G31" s="46"/>
+      <c r="G31" s="47"/>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
@@ -2022,7 +2052,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G32" s="46"/>
+      <c r="G32" s="47"/>
     </row>
     <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
@@ -2044,7 +2074,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G33" s="46"/>
+      <c r="G33" s="47"/>
     </row>
     <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
@@ -2066,7 +2096,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G34" s="46"/>
+      <c r="G34" s="47"/>
     </row>
     <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
@@ -2088,7 +2118,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G35" s="46"/>
+      <c r="G35" s="47"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
@@ -2110,7 +2140,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G36" s="46"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
@@ -2132,7 +2162,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="47">
         <v>0</v>
       </c>
     </row>
@@ -2155,7 +2185,7 @@
       <c r="F38" s="39">
         <v>5</v>
       </c>
-      <c r="G38" s="46"/>
+      <c r="G38" s="47"/>
     </row>
     <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
@@ -2177,7 +2207,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G39" s="46"/>
+      <c r="G39" s="47"/>
     </row>
     <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
@@ -2267,10 +2297,21 @@
       <c r="A44" s="20">
         <v>43</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="F44" s="39" t="str">
+      <c r="B44" s="26">
+        <v>4</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="46">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
@@ -7033,7 +7074,7 @@
     <mergeCell ref="G28:G36"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7051,7 +7092,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7068,16 +7109,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -8170,7 +8211,7 @@
         <v>26</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E42" s="38" t="s">
         <v>81</v>
@@ -8214,7 +8255,7 @@
       <c r="B44" s="9">
         <v>4</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="31" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="10" t="s">
@@ -8229,13 +8270,25 @@
       <c r="G44" s="14"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="14"/>
+    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="46">
+        <v>43</v>
+      </c>
+      <c r="B45" s="26">
+        <v>4</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="14">
+        <v>43783</v>
+      </c>
       <c r="G45" s="14"/>
       <c r="H45" s="13"/>
     </row>
@@ -17794,202 +17847,217 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="containsBlanks" dxfId="36" priority="48">
+    <cfRule type="containsBlanks" dxfId="39" priority="51">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30 E33:E38">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E30 E33:E38">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E30 E33:E38">
+    <cfRule type="containsBlanks" dxfId="36" priority="39">
+      <formula>LEN(TRIM(E23))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E30 E33:E38">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E30 E33:E38">
+  <conditionalFormatting sqref="E12">
     <cfRule type="containsBlanks" dxfId="33" priority="36">
-      <formula>LEN(TRIM(E23))=0</formula>
+      <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E21">
     <cfRule type="containsBlanks" dxfId="30" priority="33">
-      <formula>LEN(TRIM(E12))=0</formula>
+      <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="containsBlanks" dxfId="27" priority="30">
-      <formula>LEN(TRIM(E21))=0</formula>
+      <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E31">
     <cfRule type="containsBlanks" dxfId="24" priority="27">
-      <formula>LEN(TRIM(E22))=0</formula>
+      <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="containsBlanks" dxfId="21" priority="24">
-      <formula>LEN(TRIM(E31))=0</formula>
+      <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E39">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E39">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E39">
     <cfRule type="containsBlanks" dxfId="18" priority="21">
-      <formula>LEN(TRIM(E32))=0</formula>
+      <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="containsBlanks" dxfId="15" priority="18">
-      <formula>LEN(TRIM(E39))=0</formula>
+      <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="containsBlanks" dxfId="12" priority="15">
-      <formula>LEN(TRIM(E40))=0</formula>
+      <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42">
     <cfRule type="containsBlanks" dxfId="9" priority="12">
-      <formula>LEN(TRIM(E41))=0</formula>
+      <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E43">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E43">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E43">
     <cfRule type="containsBlanks" dxfId="6" priority="9">
-      <formula>LEN(TRIM(E42))=0</formula>
+      <formula>LEN(TRIM(E43))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="E44">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="E44">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="E44">
     <cfRule type="containsBlanks" dxfId="3" priority="6">
-      <formula>LEN(TRIM(E43))=0</formula>
+      <formula>LEN(TRIM(E44))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E45">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E45">
     <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E44))=0</formula>
+      <formula>LEN(TRIM(E45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E44" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E45" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CasperLim\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FF8AED-24DF-43AD-8EFD-1C37D41979BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB68BA8-CAD0-4C6A-BBB6-DCD5C24AA1B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="98">
   <si>
     <t>Bug Log</t>
   </si>
@@ -629,49 +629,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1388,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -7157,7 +7115,7 @@
     <mergeCell ref="G28:G36"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7174,8 +7132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8345,13 +8303,17 @@
         <v>93</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="F44" s="19">
         <v>43776</v>
       </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="13"/>
+      <c r="G44" s="14">
+        <v>43783</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A45" s="46">
@@ -17950,212 +17912,212 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="containsBlanks" dxfId="48" priority="54">
+    <cfRule type="containsBlanks" dxfId="42" priority="54">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30 E33:E38">
-    <cfRule type="cellIs" dxfId="47" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30 E33:E38">
-    <cfRule type="cellIs" dxfId="46" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30 E33:E38">
-    <cfRule type="containsBlanks" dxfId="45" priority="42">
+    <cfRule type="containsBlanks" dxfId="39" priority="42">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="43" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="42" priority="39">
+    <cfRule type="containsBlanks" dxfId="36" priority="39">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="39" priority="36">
+    <cfRule type="containsBlanks" dxfId="33" priority="36">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="36" priority="33">
+    <cfRule type="containsBlanks" dxfId="30" priority="33">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsBlanks" dxfId="33" priority="30">
+    <cfRule type="containsBlanks" dxfId="27" priority="30">
       <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsBlanks" dxfId="30" priority="27">
+    <cfRule type="containsBlanks" dxfId="24" priority="27">
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="27" priority="24">
+    <cfRule type="containsBlanks" dxfId="21" priority="24">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsBlanks" dxfId="24" priority="21">
+    <cfRule type="containsBlanks" dxfId="18" priority="21">
       <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsBlanks" dxfId="21" priority="18">
+    <cfRule type="containsBlanks" dxfId="15" priority="18">
       <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="containsBlanks" dxfId="18" priority="15">
+    <cfRule type="containsBlanks" dxfId="12" priority="15">
       <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="containsBlanks" dxfId="15" priority="12">
+    <cfRule type="containsBlanks" dxfId="9" priority="12">
       <formula>LEN(TRIM(E43))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="containsBlanks" dxfId="12" priority="9">
+    <cfRule type="containsBlanks" dxfId="6" priority="9">
       <formula>LEN(TRIM(E44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="containsBlanks" dxfId="9" priority="6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(E45))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ong Yan Ning\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DC5189-57B5-45B8-B554-05F5DA008CB6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B15FF-95F3-4803-8923-48FB43E66579}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="100">
   <si>
     <t>Bug Log</t>
   </si>
@@ -325,6 +325,12 @@
   <si>
     <t>Some of the user that have completed the prerequiste aren't allowed to bid for their elligble course.</t>
   </si>
+  <si>
+    <t>Update/Delete Bid</t>
+  </si>
+  <si>
+    <t>Users are able to update and delete bid even though round has not begin yet</t>
+  </si>
 </sst>
 </file>
 
@@ -476,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -618,6 +624,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,7 +638,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="49">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1346,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1364,16 +1394,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -1421,7 +1451,7 @@
         <f t="shared" ref="F3:F199" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="49">
         <v>0</v>
       </c>
       <c r="H3" s="24" t="str">
@@ -1449,7 +1479,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="48"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1472,7 +1502,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1495,7 +1525,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1518,7 +1548,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1541,7 +1571,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="48"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1564,7 +1594,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="48"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1587,7 +1617,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="48"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1610,7 +1640,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="48"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1633,7 +1663,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="48"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1656,7 +1686,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1678,7 +1708,7 @@
       <c r="F14" s="39">
         <v>1</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1700,7 +1730,7 @@
       <c r="F15" s="39">
         <v>5</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1722,7 +1752,7 @@
       <c r="F16" s="39">
         <v>1</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1744,7 +1774,7 @@
       <c r="F17" s="39">
         <v>5</v>
       </c>
-      <c r="G17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1766,7 +1796,7 @@
       <c r="F18" s="39">
         <v>5</v>
       </c>
-      <c r="G18" s="48"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1788,7 +1818,7 @@
       <c r="F19" s="39">
         <v>10</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1810,7 +1840,7 @@
       <c r="F20" s="39">
         <v>5</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1832,7 +1862,7 @@
       <c r="F21" s="39">
         <v>5</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1854,7 +1884,7 @@
       <c r="F22" s="39">
         <v>5</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="49">
         <v>0</v>
       </c>
       <c r="H22" s="24"/>
@@ -1879,7 +1909,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>10</v>
       </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="37" t="s">
         <v>23</v>
       </c>
@@ -1903,7 +1933,7 @@
       <c r="F24" s="39">
         <v>1</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="49">
         <v>0</v>
       </c>
     </row>
@@ -1926,7 +1956,7 @@
       <c r="F25" s="39">
         <v>5</v>
       </c>
-      <c r="G25" s="48"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
@@ -1947,7 +1977,7 @@
       <c r="F26" s="39">
         <v>1</v>
       </c>
-      <c r="G26" s="48"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
@@ -1968,7 +1998,7 @@
       <c r="F27" s="39">
         <v>5</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="37" t="s">
         <v>23</v>
       </c>
@@ -1992,7 +2022,7 @@
       <c r="F28" s="39">
         <v>1</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="49">
         <v>0</v>
       </c>
     </row>
@@ -2016,7 +2046,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="48"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
@@ -2038,7 +2068,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="48"/>
+      <c r="G30" s="49"/>
     </row>
     <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
@@ -2060,7 +2090,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G31" s="48"/>
+      <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
@@ -2082,7 +2112,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G32" s="48"/>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
@@ -2104,7 +2134,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G33" s="48"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
@@ -2126,7 +2156,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G34" s="48"/>
+      <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
@@ -2148,7 +2178,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G35" s="48"/>
+      <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
@@ -2170,7 +2200,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G36" s="48"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
@@ -2192,7 +2222,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G37" s="48">
+      <c r="G37" s="49">
         <v>0</v>
       </c>
     </row>
@@ -2215,7 +2245,7 @@
       <c r="F38" s="39">
         <v>5</v>
       </c>
-      <c r="G38" s="48"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
@@ -2237,7 +2267,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G39" s="48"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
@@ -2259,7 +2289,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G40" s="48">
+      <c r="G40" s="49">
         <v>0</v>
       </c>
     </row>
@@ -2283,7 +2313,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G41" s="48"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
@@ -2305,7 +2335,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G42" s="48"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
@@ -2327,7 +2357,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G43" s="48"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
@@ -2349,7 +2379,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G44" s="48"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
@@ -2371,16 +2401,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G45" s="48"/>
-    </row>
-    <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
+      <c r="G45" s="49"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="F46" s="39" t="str">
+      <c r="B46" s="9">
+        <v>5</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="48">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
@@ -7124,7 +7165,7 @@
     <mergeCell ref="G28:G36"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7141,7 +7182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -7159,16 +7200,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -8377,12 +8418,24 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
+      <c r="A47" s="9">
+        <v>45</v>
+      </c>
+      <c r="B47" s="9">
+        <v>5</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="14">
+        <v>43784</v>
+      </c>
       <c r="G47" s="14"/>
       <c r="H47" s="13"/>
     </row>
@@ -17921,232 +17974,247 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="containsBlanks" dxfId="42" priority="54">
+    <cfRule type="containsBlanks" dxfId="45" priority="57">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30 E33:E38">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E30 E33:E38">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E30 E33:E38">
+    <cfRule type="containsBlanks" dxfId="42" priority="45">
+      <formula>LEN(TRIM(E23))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E30 E33:E38">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E30 E33:E38">
+  <conditionalFormatting sqref="E12">
     <cfRule type="containsBlanks" dxfId="39" priority="42">
-      <formula>LEN(TRIM(E23))=0</formula>
+      <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E21">
     <cfRule type="containsBlanks" dxfId="36" priority="39">
-      <formula>LEN(TRIM(E12))=0</formula>
+      <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="containsBlanks" dxfId="33" priority="36">
-      <formula>LEN(TRIM(E21))=0</formula>
+      <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E31">
     <cfRule type="containsBlanks" dxfId="30" priority="33">
-      <formula>LEN(TRIM(E22))=0</formula>
+      <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="containsBlanks" dxfId="27" priority="30">
-      <formula>LEN(TRIM(E31))=0</formula>
+      <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E39">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E39">
     <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E39">
     <cfRule type="containsBlanks" dxfId="24" priority="27">
-      <formula>LEN(TRIM(E32))=0</formula>
+      <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="containsBlanks" dxfId="21" priority="24">
-      <formula>LEN(TRIM(E39))=0</formula>
+      <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="containsBlanks" dxfId="18" priority="21">
-      <formula>LEN(TRIM(E40))=0</formula>
+      <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42">
     <cfRule type="containsBlanks" dxfId="15" priority="18">
-      <formula>LEN(TRIM(E41))=0</formula>
+      <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E43">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E43">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E43">
     <cfRule type="containsBlanks" dxfId="12" priority="15">
-      <formula>LEN(TRIM(E42))=0</formula>
+      <formula>LEN(TRIM(E43))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="E44">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="E44">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="E44">
     <cfRule type="containsBlanks" dxfId="9" priority="12">
-      <formula>LEN(TRIM(E43))=0</formula>
+      <formula>LEN(TRIM(E44))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E45">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E45">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E45">
     <cfRule type="containsBlanks" dxfId="6" priority="9">
-      <formula>LEN(TRIM(E44))=0</formula>
+      <formula>LEN(TRIM(E45))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E46">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E46">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E46">
     <cfRule type="containsBlanks" dxfId="3" priority="6">
-      <formula>LEN(TRIM(E45))=0</formula>
+      <formula>LEN(TRIM(E46))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+  <conditionalFormatting sqref="E47">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+  <conditionalFormatting sqref="E47">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+  <conditionalFormatting sqref="E47">
     <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E46))=0</formula>
+      <formula>LEN(TRIM(E47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E46" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E47" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ong Yan Ning\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B15FF-95F3-4803-8923-48FB43E66579}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D86ABB-3624-4AD1-BB27-44971C35C625}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="100">
   <si>
     <t>Bug Log</t>
   </si>
@@ -1376,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
@@ -8431,13 +8431,17 @@
         <v>99</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="F47" s="14">
         <v>43784</v>
       </c>
-      <c r="G47" s="14"/>
-      <c r="H47" s="13"/>
+      <c r="G47" s="14">
+        <v>43784</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ong Yan Ning\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D86ABB-3624-4AD1-BB27-44971C35C625}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5F3D12-5AC9-421E-9BB0-7AFD95AA0578}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="103">
   <si>
     <t>Bug Log</t>
   </si>
@@ -330,6 +330,15 @@
   </si>
   <si>
     <t>Users are able to update and delete bid even though round has not begin yet</t>
+  </si>
+  <si>
+    <t>Drop section</t>
+  </si>
+  <si>
+    <t>Users are able to drop section even though round has not begin yet</t>
+  </si>
+  <si>
+    <t>Uncaught error: Call to a member function getEdollar() upon importing bootstrap files with whitespacing characters at the start and end of certain fields</t>
   </si>
 </sst>
 </file>
@@ -638,7 +647,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="55">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1376,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2424,24 +2475,46 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>46</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="F47" s="39" t="str">
+      <c r="B47" s="9">
+        <v>5</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="48">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>47</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="F48" s="39" t="str">
+      <c r="B48" s="26">
+        <v>5</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="48">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -7165,7 +7238,7 @@
     <mergeCell ref="G28:G36"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7182,8 +7255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8444,22 +8517,46 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14"/>
+      <c r="A48" s="9">
+        <v>46</v>
+      </c>
+      <c r="B48" s="9">
+        <v>5</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="14">
+        <v>43785</v>
+      </c>
       <c r="G48" s="14"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="14"/>
+    <row r="49" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>47</v>
+      </c>
+      <c r="B49" s="26">
+        <v>5</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="14">
+        <v>43785</v>
+      </c>
       <c r="G49" s="14"/>
       <c r="H49" s="13"/>
     </row>
@@ -17978,247 +18075,277 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="46" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="containsBlanks" dxfId="45" priority="57">
+    <cfRule type="containsBlanks" dxfId="51" priority="63">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30 E33:E38">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E30 E33:E38">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E30 E33:E38">
+    <cfRule type="containsBlanks" dxfId="48" priority="51">
+      <formula>LEN(TRIM(E23))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="containsBlanks" dxfId="45" priority="48">
+      <formula>LEN(TRIM(E12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E30 E33:E38">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E30 E33:E38">
+  <conditionalFormatting sqref="E21">
     <cfRule type="containsBlanks" dxfId="42" priority="45">
-      <formula>LEN(TRIM(E23))=0</formula>
+      <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E22">
     <cfRule type="containsBlanks" dxfId="39" priority="42">
-      <formula>LEN(TRIM(E12))=0</formula>
+      <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E31">
     <cfRule type="containsBlanks" dxfId="36" priority="39">
-      <formula>LEN(TRIM(E21))=0</formula>
+      <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E32">
     <cfRule type="containsBlanks" dxfId="33" priority="36">
-      <formula>LEN(TRIM(E22))=0</formula>
+      <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E39">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E39">
     <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E39">
     <cfRule type="containsBlanks" dxfId="30" priority="33">
-      <formula>LEN(TRIM(E31))=0</formula>
+      <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E40">
     <cfRule type="containsBlanks" dxfId="27" priority="30">
-      <formula>LEN(TRIM(E32))=0</formula>
+      <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E41">
     <cfRule type="containsBlanks" dxfId="24" priority="27">
-      <formula>LEN(TRIM(E39))=0</formula>
+      <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E42">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E42">
     <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E42">
     <cfRule type="containsBlanks" dxfId="21" priority="24">
-      <formula>LEN(TRIM(E40))=0</formula>
+      <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E43">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E43">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E43">
     <cfRule type="containsBlanks" dxfId="18" priority="21">
-      <formula>LEN(TRIM(E41))=0</formula>
+      <formula>LEN(TRIM(E43))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E44">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E44">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E44">
     <cfRule type="containsBlanks" dxfId="15" priority="18">
-      <formula>LEN(TRIM(E42))=0</formula>
+      <formula>LEN(TRIM(E44))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="E45">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="E45">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="E45">
     <cfRule type="containsBlanks" dxfId="12" priority="15">
-      <formula>LEN(TRIM(E43))=0</formula>
+      <formula>LEN(TRIM(E45))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E46">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E46">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E46">
     <cfRule type="containsBlanks" dxfId="9" priority="12">
-      <formula>LEN(TRIM(E44))=0</formula>
+      <formula>LEN(TRIM(E46))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E47">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E47">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E47">
     <cfRule type="containsBlanks" dxfId="6" priority="9">
-      <formula>LEN(TRIM(E45))=0</formula>
+      <formula>LEN(TRIM(E47))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+  <conditionalFormatting sqref="E48">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+  <conditionalFormatting sqref="E48">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+  <conditionalFormatting sqref="E48">
     <cfRule type="containsBlanks" dxfId="3" priority="6">
-      <formula>LEN(TRIM(E46))=0</formula>
+      <formula>LEN(TRIM(E48))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="E49">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="E49">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="E49">
     <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E47))=0</formula>
+      <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E47" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E49" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ong Yan Ning\Documents\GitHub\project-g4t4\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Spm project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AD1E42-6ACE-4379-B65A-D8808B6899F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB08D012-1F71-444A-85C3-46520C601DD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="112">
   <si>
     <t>Bug Log</t>
   </si>
@@ -352,6 +352,21 @@
   <si>
     <t>Unresolved</t>
   </si>
+  <si>
+    <t>Number of vacancy in database not reflected accordinly upon dropping section during round 2</t>
+  </si>
+  <si>
+    <t>2 "go back to home" link upon clicking "update bid" in round 2</t>
+  </si>
+  <si>
+    <t>Timezone in admin interface not accurate (eg. should be 17 November 2019 instead of 16 November 2019) in midnight</t>
+  </si>
+  <si>
+    <t>Update bid</t>
+  </si>
+  <si>
+    <t>S/N should start with 1 instead of 0 upon updating bid</t>
+  </si>
 </sst>
 </file>
 
@@ -503,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -657,6 +672,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,7 +686,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="70">
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1532,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1550,16 +1589,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -1607,7 +1646,7 @@
         <f t="shared" ref="F3:F199" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="53">
         <v>0</v>
       </c>
       <c r="H3" s="24" t="str">
@@ -1635,7 +1674,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1658,7 +1697,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1681,7 +1720,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1704,7 +1743,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1727,7 +1766,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="52"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1750,7 +1789,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="52"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1773,7 +1812,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="52"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1796,7 +1835,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="52"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1819,7 +1858,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="52"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1842,7 +1881,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="52"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1864,7 +1903,7 @@
       <c r="F14" s="39">
         <v>1</v>
       </c>
-      <c r="G14" s="52"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1886,7 +1925,7 @@
       <c r="F15" s="39">
         <v>5</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1908,7 +1947,7 @@
       <c r="F16" s="39">
         <v>1</v>
       </c>
-      <c r="G16" s="52"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1930,7 +1969,7 @@
       <c r="F17" s="39">
         <v>5</v>
       </c>
-      <c r="G17" s="52"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1952,7 +1991,7 @@
       <c r="F18" s="39">
         <v>5</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1974,7 +2013,7 @@
       <c r="F19" s="39">
         <v>10</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1996,7 +2035,7 @@
       <c r="F20" s="39">
         <v>5</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -2018,7 +2057,7 @@
       <c r="F21" s="39">
         <v>5</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -2040,7 +2079,7 @@
       <c r="F22" s="39">
         <v>5</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="53">
         <v>0</v>
       </c>
       <c r="H22" s="24"/>
@@ -2065,7 +2104,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>10</v>
       </c>
-      <c r="G23" s="52"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="37" t="s">
         <v>23</v>
       </c>
@@ -2089,7 +2128,7 @@
       <c r="F24" s="39">
         <v>1</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="53">
         <v>0</v>
       </c>
     </row>
@@ -2112,7 +2151,7 @@
       <c r="F25" s="39">
         <v>5</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
@@ -2133,7 +2172,7 @@
       <c r="F26" s="39">
         <v>1</v>
       </c>
-      <c r="G26" s="52"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
@@ -2154,7 +2193,7 @@
       <c r="F27" s="39">
         <v>5</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="37" t="s">
         <v>23</v>
       </c>
@@ -2178,7 +2217,7 @@
       <c r="F28" s="39">
         <v>1</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="53">
         <v>0</v>
       </c>
     </row>
@@ -2202,7 +2241,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="52"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
@@ -2224,7 +2263,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="52"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
@@ -2246,7 +2285,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G31" s="52"/>
+      <c r="G31" s="53"/>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
@@ -2268,7 +2307,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G32" s="52"/>
+      <c r="G32" s="53"/>
     </row>
     <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
@@ -2290,7 +2329,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G33" s="52"/>
+      <c r="G33" s="53"/>
     </row>
     <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
@@ -2312,7 +2351,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G34" s="52"/>
+      <c r="G34" s="53"/>
     </row>
     <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
@@ -2334,7 +2373,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G35" s="52"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
@@ -2356,7 +2395,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G36" s="52"/>
+      <c r="G36" s="53"/>
     </row>
     <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
@@ -2378,7 +2417,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G37" s="52">
+      <c r="G37" s="53">
         <v>0</v>
       </c>
     </row>
@@ -2401,7 +2440,7 @@
       <c r="F38" s="39">
         <v>5</v>
       </c>
-      <c r="G38" s="52"/>
+      <c r="G38" s="53"/>
     </row>
     <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
@@ -2423,7 +2462,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G39" s="52"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
@@ -2698,44 +2737,88 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>52</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="F53" s="39" t="str">
+      <c r="B53" s="26">
+        <v>4</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="52">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>53</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="F54" s="39" t="str">
+      <c r="B54" s="26">
+        <v>4</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="52">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>54</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="F55" s="39" t="str">
+      <c r="B55" s="26">
+        <v>4</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="52">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>55</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="F56" s="39" t="str">
+      <c r="B56" s="26">
+        <v>4</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="52">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -7378,7 +7461,7 @@
     <mergeCell ref="G28:G36"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7396,7 +7479,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7413,16 +7496,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -8816,43 +8899,91 @@
       <c r="G53" s="14"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="14"/>
+    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>52</v>
+      </c>
+      <c r="B54" s="26">
+        <v>4</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="14">
+        <v>43786</v>
+      </c>
       <c r="G54" s="14"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="14"/>
+    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>53</v>
+      </c>
+      <c r="B55" s="26">
+        <v>4</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="14">
+        <v>43786</v>
+      </c>
       <c r="G55" s="14"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="14"/>
+    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>54</v>
+      </c>
+      <c r="B56" s="26">
+        <v>4</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="14">
+        <v>43786</v>
+      </c>
       <c r="G56" s="14"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="14"/>
+    <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>55</v>
+      </c>
+      <c r="B57" s="26">
+        <v>4</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="14">
+        <v>43786</v>
+      </c>
       <c r="G57" s="14"/>
       <c r="H57" s="13"/>
     </row>
@@ -18291,337 +18422,352 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="77" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="containsBlanks" dxfId="63" priority="75">
+    <cfRule type="containsBlanks" dxfId="66" priority="78">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30 E33:E38">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+      <formula>"Unresolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E30 E33:E38">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+      <formula>"Resolved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E30 E33:E38">
+    <cfRule type="containsBlanks" dxfId="63" priority="66">
+      <formula>LEN(TRIM(E23))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E30 E33:E38">
+  <conditionalFormatting sqref="E12">
     <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E30 E33:E38">
+  <conditionalFormatting sqref="E12">
     <cfRule type="containsBlanks" dxfId="60" priority="63">
-      <formula>LEN(TRIM(E23))=0</formula>
+      <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E21">
     <cfRule type="containsBlanks" dxfId="57" priority="60">
-      <formula>LEN(TRIM(E12))=0</formula>
+      <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E22">
     <cfRule type="containsBlanks" dxfId="54" priority="57">
-      <formula>LEN(TRIM(E21))=0</formula>
+      <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E31">
     <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="E31">
     <cfRule type="containsBlanks" dxfId="51" priority="54">
-      <formula>LEN(TRIM(E22))=0</formula>
+      <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
+  <conditionalFormatting sqref="E32">
     <cfRule type="containsBlanks" dxfId="48" priority="51">
-      <formula>LEN(TRIM(E31))=0</formula>
+      <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E39">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E39">
     <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E39">
     <cfRule type="containsBlanks" dxfId="45" priority="48">
-      <formula>LEN(TRIM(E32))=0</formula>
+      <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="E40">
     <cfRule type="containsBlanks" dxfId="42" priority="45">
-      <formula>LEN(TRIM(E39))=0</formula>
+      <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
+  <conditionalFormatting sqref="E41">
     <cfRule type="containsBlanks" dxfId="39" priority="42">
-      <formula>LEN(TRIM(E40))=0</formula>
+      <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42">
     <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E42">
     <cfRule type="containsBlanks" dxfId="36" priority="39">
-      <formula>LEN(TRIM(E41))=0</formula>
+      <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E43">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E43">
     <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="E43">
     <cfRule type="containsBlanks" dxfId="33" priority="36">
-      <formula>LEN(TRIM(E42))=0</formula>
+      <formula>LEN(TRIM(E43))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="E44">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="E44">
     <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
+  <conditionalFormatting sqref="E44">
     <cfRule type="containsBlanks" dxfId="30" priority="33">
-      <formula>LEN(TRIM(E43))=0</formula>
+      <formula>LEN(TRIM(E44))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E45">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E45">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
+  <conditionalFormatting sqref="E45">
     <cfRule type="containsBlanks" dxfId="27" priority="30">
-      <formula>LEN(TRIM(E44))=0</formula>
+      <formula>LEN(TRIM(E45))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E46">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E46">
     <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E46">
     <cfRule type="containsBlanks" dxfId="24" priority="27">
-      <formula>LEN(TRIM(E45))=0</formula>
+      <formula>LEN(TRIM(E46))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+  <conditionalFormatting sqref="E47">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+  <conditionalFormatting sqref="E47">
     <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+  <conditionalFormatting sqref="E47">
     <cfRule type="containsBlanks" dxfId="21" priority="24">
-      <formula>LEN(TRIM(E46))=0</formula>
+      <formula>LEN(TRIM(E47))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="E48">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="E48">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="E48">
     <cfRule type="containsBlanks" dxfId="18" priority="21">
-      <formula>LEN(TRIM(E47))=0</formula>
+      <formula>LEN(TRIM(E48))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
+  <conditionalFormatting sqref="E49">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
+  <conditionalFormatting sqref="E49">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
+  <conditionalFormatting sqref="E49">
     <cfRule type="containsBlanks" dxfId="15" priority="18">
-      <formula>LEN(TRIM(E48))=0</formula>
+      <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
+  <conditionalFormatting sqref="E50">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
+  <conditionalFormatting sqref="E50">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
+  <conditionalFormatting sqref="E50">
     <cfRule type="containsBlanks" dxfId="12" priority="15">
-      <formula>LEN(TRIM(E49))=0</formula>
+      <formula>LEN(TRIM(E50))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
+  <conditionalFormatting sqref="E51">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
+  <conditionalFormatting sqref="E51">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
+  <conditionalFormatting sqref="E51">
     <cfRule type="containsBlanks" dxfId="9" priority="12">
-      <formula>LEN(TRIM(E50))=0</formula>
+      <formula>LEN(TRIM(E51))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E52">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="E52">
     <cfRule type="containsBlanks" dxfId="6" priority="9">
-      <formula>LEN(TRIM(E51))=0</formula>
+      <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E53">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E53">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
+  <conditionalFormatting sqref="E53">
     <cfRule type="containsBlanks" dxfId="3" priority="6">
-      <formula>LEN(TRIM(E52))=0</formula>
+      <formula>LEN(TRIM(E53))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E54:E57">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E54:E57">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E54:E57">
     <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E53))=0</formula>
+      <formula>LEN(TRIM(E54))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E53" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E57" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Spm project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ong Yan Ning\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB08D012-1F71-444A-85C3-46520C601DD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F127249-37D8-4784-9879-C56B04595C4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="112">
   <si>
     <t>Bug Log</t>
   </si>
@@ -7478,8 +7478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8935,13 +8935,17 @@
         <v>108</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="F55" s="14">
         <v>43786</v>
       </c>
-      <c r="G55" s="14"/>
-      <c r="H55" s="13"/>
+      <c r="G55" s="14">
+        <v>43786</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
@@ -8957,13 +8961,17 @@
         <v>109</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="F56" s="14">
         <v>43786</v>
       </c>
-      <c r="G56" s="14"/>
-      <c r="H56" s="13"/>
+      <c r="G56" s="14">
+        <v>43786</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="9">

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ong Yan Ning\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F127249-37D8-4784-9879-C56B04595C4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB32119-F120-4381-8731-0012B9CF3760}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,9 +353,6 @@
     <t>Unresolved</t>
   </si>
   <si>
-    <t>Number of vacancy in database not reflected accordinly upon dropping section during round 2</t>
-  </si>
-  <si>
     <t>2 "go back to home" link upon clicking "update bid" in round 2</t>
   </si>
   <si>
@@ -366,6 +363,9 @@
   </si>
   <si>
     <t>S/N should start with 1 instead of 0 upon updating bid</t>
+  </si>
+  <si>
+    <t>Number of successful bids not in accordance with the number of vacancy even though there is only one bid placed at the clearing price</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -672,6 +672,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1589,16 +1593,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -1646,7 +1650,7 @@
         <f t="shared" ref="F3:F199" si="0">IF($E3="Critical", 10, IF($E3="High",5, IF($E3="Low",1,"")))</f>
         <v>5</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="55">
         <v>0</v>
       </c>
       <c r="H3" s="24" t="str">
@@ -1674,7 +1678,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1697,7 +1701,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="53"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1720,7 +1724,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G6" s="53"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1743,7 +1747,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="53"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1766,7 +1770,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8" s="53"/>
+      <c r="G8" s="55"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1789,7 +1793,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="53"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1812,7 +1816,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="53"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1835,7 +1839,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="53"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1858,7 +1862,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="53"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1881,7 +1885,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="53"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1903,7 +1907,7 @@
       <c r="F14" s="39">
         <v>1</v>
       </c>
-      <c r="G14" s="53"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1925,7 +1929,7 @@
       <c r="F15" s="39">
         <v>5</v>
       </c>
-      <c r="G15" s="53"/>
+      <c r="G15" s="55"/>
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1947,7 +1951,7 @@
       <c r="F16" s="39">
         <v>1</v>
       </c>
-      <c r="G16" s="53"/>
+      <c r="G16" s="55"/>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -1969,7 +1973,7 @@
       <c r="F17" s="39">
         <v>5</v>
       </c>
-      <c r="G17" s="53"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -1991,7 +1995,7 @@
       <c r="F18" s="39">
         <v>5</v>
       </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -2013,7 +2017,7 @@
       <c r="F19" s="39">
         <v>10</v>
       </c>
-      <c r="G19" s="53"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
@@ -2035,7 +2039,7 @@
       <c r="F20" s="39">
         <v>5</v>
       </c>
-      <c r="G20" s="53"/>
+      <c r="G20" s="55"/>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -2057,7 +2061,7 @@
       <c r="F21" s="39">
         <v>5</v>
       </c>
-      <c r="G21" s="53"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
@@ -2079,7 +2083,7 @@
       <c r="F22" s="39">
         <v>5</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="55">
         <v>0</v>
       </c>
       <c r="H22" s="24"/>
@@ -2104,7 +2108,7 @@
         <f>IF($E23="Critical", 10, IF($E23="High",5, IF($E23="Low",1,"")))</f>
         <v>10</v>
       </c>
-      <c r="G23" s="53"/>
+      <c r="G23" s="55"/>
       <c r="H23" s="37" t="s">
         <v>23</v>
       </c>
@@ -2128,7 +2132,7 @@
       <c r="F24" s="39">
         <v>1</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="55">
         <v>0</v>
       </c>
     </row>
@@ -2151,7 +2155,7 @@
       <c r="F25" s="39">
         <v>5</v>
       </c>
-      <c r="G25" s="53"/>
+      <c r="G25" s="55"/>
     </row>
     <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
@@ -2172,7 +2176,7 @@
       <c r="F26" s="39">
         <v>1</v>
       </c>
-      <c r="G26" s="53"/>
+      <c r="G26" s="55"/>
     </row>
     <row r="27" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
@@ -2193,7 +2197,7 @@
       <c r="F27" s="39">
         <v>5</v>
       </c>
-      <c r="G27" s="53"/>
+      <c r="G27" s="55"/>
       <c r="H27" s="37" t="s">
         <v>23</v>
       </c>
@@ -2217,7 +2221,7 @@
       <c r="F28" s="39">
         <v>1</v>
       </c>
-      <c r="G28" s="53">
+      <c r="G28" s="55">
         <v>0</v>
       </c>
     </row>
@@ -2241,7 +2245,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="53"/>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
@@ -2263,7 +2267,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G30" s="53"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
@@ -2285,7 +2289,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G31" s="53"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
@@ -2307,7 +2311,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G32" s="53"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
@@ -2329,7 +2333,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G33" s="53"/>
+      <c r="G33" s="55"/>
     </row>
     <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
@@ -2351,7 +2355,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G34" s="53"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
@@ -2373,7 +2377,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G35" s="53"/>
+      <c r="G35" s="55"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
@@ -2395,7 +2399,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G36" s="53"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
@@ -2417,7 +2421,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G37" s="53">
+      <c r="G37" s="55">
         <v>0</v>
       </c>
     </row>
@@ -2440,7 +2444,7 @@
       <c r="F38" s="39">
         <v>5</v>
       </c>
-      <c r="G38" s="53"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
@@ -2462,7 +2466,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G39" s="53"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
@@ -2737,7 +2741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -2745,7 +2749,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>107</v>
@@ -2758,7 +2762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>53</v>
       </c>
@@ -2779,7 +2783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>54</v>
       </c>
@@ -2787,10 +2791,10 @@
         <v>4</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E55" s="52" t="s">
         <v>27</v>
@@ -2800,15 +2804,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A56" s="20">
         <v>55</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="39">
         <v>4</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>111</v>
@@ -7476,7 +7480,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
@@ -7496,16 +7500,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -8877,7 +8881,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="54" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>51</v>
       </c>
@@ -8897,31 +8901,35 @@
         <v>43786</v>
       </c>
       <c r="G53" s="14"/>
-      <c r="H53" s="13"/>
-    </row>
-    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>52</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="9">
         <v>4</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>107</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="F54" s="14">
         <v>43786</v>
       </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="13"/>
-    </row>
-    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G54" s="14">
+        <v>43786</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>53</v>
       </c>
@@ -8947,7 +8955,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>54</v>
       </c>
@@ -8955,33 +8963,29 @@
         <v>4</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="F56" s="14">
         <v>43786</v>
       </c>
-      <c r="G56" s="14">
-        <v>43786</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G56" s="14"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>55</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="53">
         <v>4</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>111</v>
@@ -8992,24 +8996,16 @@
       <c r="F57" s="14">
         <v>43786</v>
       </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="13"/>
-    </row>
-    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="13"/>
+      <c r="B58" s="26"/>
     </row>
     <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="15"/>
+      <c r="D59" s="10"/>
       <c r="E59" s="13"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
@@ -9019,7 +9015,7 @@
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="10"/>
+      <c r="D60" s="15"/>
       <c r="E60" s="13"/>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
@@ -9049,7 +9045,7 @@
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="15"/>
+      <c r="D63" s="10"/>
       <c r="E63" s="13"/>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
@@ -9059,7 +9055,7 @@
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="10"/>
+      <c r="D64" s="15"/>
       <c r="E64" s="13"/>
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
@@ -9089,7 +9085,7 @@
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="15"/>
+      <c r="D67" s="10"/>
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
@@ -9099,7 +9095,7 @@
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="10"/>
+      <c r="D68" s="15"/>
       <c r="E68" s="13"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
@@ -9129,7 +9125,7 @@
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="15"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="13"/>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
@@ -9139,7 +9135,7 @@
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="10"/>
+      <c r="D72" s="15"/>
       <c r="E72" s="13"/>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
@@ -9169,7 +9165,7 @@
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="15"/>
+      <c r="D75" s="10"/>
       <c r="E75" s="13"/>
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
@@ -9179,7 +9175,7 @@
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
-      <c r="D76" s="10"/>
+      <c r="D76" s="15"/>
       <c r="E76" s="13"/>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
@@ -9209,7 +9205,7 @@
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
-      <c r="D79" s="15"/>
+      <c r="D79" s="10"/>
       <c r="E79" s="13"/>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
@@ -9219,7 +9215,7 @@
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
-      <c r="D80" s="10"/>
+      <c r="D80" s="15"/>
       <c r="E80" s="13"/>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
@@ -9249,7 +9245,7 @@
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
-      <c r="D83" s="15"/>
+      <c r="D83" s="10"/>
       <c r="E83" s="13"/>
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
@@ -9259,7 +9255,7 @@
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="10"/>
+      <c r="D84" s="15"/>
       <c r="E84" s="13"/>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
@@ -9289,7 +9285,7 @@
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
-      <c r="D87" s="15"/>
+      <c r="D87" s="10"/>
       <c r="E87" s="13"/>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
@@ -9299,7 +9295,7 @@
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
-      <c r="D88" s="10"/>
+      <c r="D88" s="15"/>
       <c r="E88" s="13"/>
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
@@ -9329,7 +9325,7 @@
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
-      <c r="D91" s="15"/>
+      <c r="D91" s="10"/>
       <c r="E91" s="13"/>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
@@ -9339,7 +9335,7 @@
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
-      <c r="D92" s="10"/>
+      <c r="D92" s="15"/>
       <c r="E92" s="13"/>
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
@@ -9369,7 +9365,7 @@
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
-      <c r="D95" s="15"/>
+      <c r="D95" s="10"/>
       <c r="E95" s="13"/>
       <c r="F95" s="14"/>
       <c r="G95" s="14"/>
@@ -9379,7 +9375,7 @@
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="10"/>
+      <c r="D96" s="15"/>
       <c r="E96" s="13"/>
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
@@ -9409,7 +9405,7 @@
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
-      <c r="D99" s="15"/>
+      <c r="D99" s="10"/>
       <c r="E99" s="13"/>
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
@@ -9419,7 +9415,7 @@
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
-      <c r="D100" s="10"/>
+      <c r="D100" s="15"/>
       <c r="E100" s="13"/>
       <c r="F100" s="14"/>
       <c r="G100" s="14"/>
@@ -9449,7 +9445,7 @@
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
-      <c r="D103" s="15"/>
+      <c r="D103" s="10"/>
       <c r="E103" s="13"/>
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
@@ -9459,7 +9455,7 @@
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
-      <c r="D104" s="10"/>
+      <c r="D104" s="15"/>
       <c r="E104" s="13"/>
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
@@ -9489,7 +9485,7 @@
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
-      <c r="D107" s="15"/>
+      <c r="D107" s="10"/>
       <c r="E107" s="13"/>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
@@ -9499,7 +9495,7 @@
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
-      <c r="D108" s="10"/>
+      <c r="D108" s="15"/>
       <c r="E108" s="13"/>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
@@ -9529,7 +9525,7 @@
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
-      <c r="D111" s="15"/>
+      <c r="D111" s="10"/>
       <c r="E111" s="13"/>
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
@@ -9539,7 +9535,7 @@
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="10"/>
+      <c r="D112" s="15"/>
       <c r="E112" s="13"/>
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
@@ -9569,7 +9565,7 @@
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
-      <c r="D115" s="15"/>
+      <c r="D115" s="10"/>
       <c r="E115" s="13"/>
       <c r="F115" s="14"/>
       <c r="G115" s="14"/>
@@ -9579,7 +9575,7 @@
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
-      <c r="D116" s="10"/>
+      <c r="D116" s="15"/>
       <c r="E116" s="13"/>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -9609,7 +9605,7 @@
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
-      <c r="D119" s="15"/>
+      <c r="D119" s="10"/>
       <c r="E119" s="13"/>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
@@ -9619,7 +9615,7 @@
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
-      <c r="D120" s="10"/>
+      <c r="D120" s="15"/>
       <c r="E120" s="13"/>
       <c r="F120" s="14"/>
       <c r="G120" s="14"/>
@@ -9649,7 +9645,7 @@
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
-      <c r="D123" s="15"/>
+      <c r="D123" s="10"/>
       <c r="E123" s="13"/>
       <c r="F123" s="14"/>
       <c r="G123" s="14"/>
@@ -9659,7 +9655,7 @@
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
-      <c r="D124" s="10"/>
+      <c r="D124" s="15"/>
       <c r="E124" s="13"/>
       <c r="F124" s="14"/>
       <c r="G124" s="14"/>
@@ -9689,7 +9685,7 @@
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
-      <c r="D127" s="15"/>
+      <c r="D127" s="10"/>
       <c r="E127" s="13"/>
       <c r="F127" s="14"/>
       <c r="G127" s="14"/>
@@ -9699,7 +9695,7 @@
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
-      <c r="D128" s="10"/>
+      <c r="D128" s="15"/>
       <c r="E128" s="13"/>
       <c r="F128" s="14"/>
       <c r="G128" s="14"/>
@@ -9729,7 +9725,7 @@
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
-      <c r="D131" s="15"/>
+      <c r="D131" s="10"/>
       <c r="E131" s="13"/>
       <c r="F131" s="14"/>
       <c r="G131" s="14"/>
@@ -9739,7 +9735,7 @@
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
-      <c r="D132" s="10"/>
+      <c r="D132" s="15"/>
       <c r="E132" s="13"/>
       <c r="F132" s="14"/>
       <c r="G132" s="14"/>
@@ -9769,7 +9765,7 @@
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
-      <c r="D135" s="15"/>
+      <c r="D135" s="10"/>
       <c r="E135" s="13"/>
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
@@ -9779,7 +9775,7 @@
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
-      <c r="D136" s="10"/>
+      <c r="D136" s="15"/>
       <c r="E136" s="13"/>
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
@@ -9809,7 +9805,7 @@
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
-      <c r="D139" s="15"/>
+      <c r="D139" s="10"/>
       <c r="E139" s="13"/>
       <c r="F139" s="14"/>
       <c r="G139" s="14"/>
@@ -9819,7 +9815,7 @@
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="10"/>
+      <c r="D140" s="15"/>
       <c r="E140" s="13"/>
       <c r="F140" s="14"/>
       <c r="G140" s="14"/>
@@ -9849,7 +9845,7 @@
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
-      <c r="D143" s="15"/>
+      <c r="D143" s="10"/>
       <c r="E143" s="13"/>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -9859,7 +9855,7 @@
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
-      <c r="D144" s="10"/>
+      <c r="D144" s="15"/>
       <c r="E144" s="13"/>
       <c r="F144" s="14"/>
       <c r="G144" s="14"/>
@@ -9889,7 +9885,7 @@
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
-      <c r="D147" s="15"/>
+      <c r="D147" s="10"/>
       <c r="E147" s="13"/>
       <c r="F147" s="14"/>
       <c r="G147" s="14"/>
@@ -9899,7 +9895,7 @@
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
-      <c r="D148" s="10"/>
+      <c r="D148" s="15"/>
       <c r="E148" s="13"/>
       <c r="F148" s="14"/>
       <c r="G148" s="14"/>
@@ -9929,7 +9925,7 @@
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
-      <c r="D151" s="15"/>
+      <c r="D151" s="10"/>
       <c r="E151" s="13"/>
       <c r="F151" s="14"/>
       <c r="G151" s="14"/>
@@ -9939,7 +9935,7 @@
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
-      <c r="D152" s="10"/>
+      <c r="D152" s="15"/>
       <c r="E152" s="13"/>
       <c r="F152" s="14"/>
       <c r="G152" s="14"/>
@@ -9969,7 +9965,7 @@
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
-      <c r="D155" s="15"/>
+      <c r="D155" s="10"/>
       <c r="E155" s="13"/>
       <c r="F155" s="14"/>
       <c r="G155" s="14"/>
@@ -9979,7 +9975,7 @@
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
-      <c r="D156" s="10"/>
+      <c r="D156" s="15"/>
       <c r="E156" s="13"/>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
@@ -10009,7 +10005,7 @@
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
-      <c r="D159" s="15"/>
+      <c r="D159" s="10"/>
       <c r="E159" s="13"/>
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
@@ -10019,7 +10015,7 @@
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
-      <c r="D160" s="10"/>
+      <c r="D160" s="15"/>
       <c r="E160" s="13"/>
       <c r="F160" s="14"/>
       <c r="G160" s="14"/>
@@ -10049,7 +10045,7 @@
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
-      <c r="D163" s="15"/>
+      <c r="D163" s="10"/>
       <c r="E163" s="13"/>
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
@@ -10059,7 +10055,7 @@
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
-      <c r="D164" s="10"/>
+      <c r="D164" s="15"/>
       <c r="E164" s="13"/>
       <c r="F164" s="14"/>
       <c r="G164" s="14"/>
@@ -10089,7 +10085,7 @@
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
-      <c r="D167" s="15"/>
+      <c r="D167" s="10"/>
       <c r="E167" s="13"/>
       <c r="F167" s="14"/>
       <c r="G167" s="14"/>
@@ -10099,7 +10095,7 @@
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
-      <c r="D168" s="10"/>
+      <c r="D168" s="15"/>
       <c r="E168" s="13"/>
       <c r="F168" s="14"/>
       <c r="G168" s="14"/>
@@ -10129,7 +10125,7 @@
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
-      <c r="D171" s="15"/>
+      <c r="D171" s="10"/>
       <c r="E171" s="13"/>
       <c r="F171" s="14"/>
       <c r="G171" s="14"/>
@@ -10139,7 +10135,7 @@
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
-      <c r="D172" s="10"/>
+      <c r="D172" s="15"/>
       <c r="E172" s="13"/>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
@@ -10169,7 +10165,7 @@
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
-      <c r="D175" s="15"/>
+      <c r="D175" s="10"/>
       <c r="E175" s="13"/>
       <c r="F175" s="14"/>
       <c r="G175" s="14"/>
@@ -10179,7 +10175,7 @@
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
-      <c r="D176" s="10"/>
+      <c r="D176" s="15"/>
       <c r="E176" s="13"/>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
@@ -10209,7 +10205,7 @@
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
-      <c r="D179" s="15"/>
+      <c r="D179" s="10"/>
       <c r="E179" s="13"/>
       <c r="F179" s="14"/>
       <c r="G179" s="14"/>
@@ -10219,7 +10215,7 @@
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
-      <c r="D180" s="10"/>
+      <c r="D180" s="15"/>
       <c r="E180" s="13"/>
       <c r="F180" s="14"/>
       <c r="G180" s="14"/>
@@ -10249,7 +10245,7 @@
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
-      <c r="D183" s="15"/>
+      <c r="D183" s="10"/>
       <c r="E183" s="13"/>
       <c r="F183" s="14"/>
       <c r="G183" s="14"/>
@@ -10259,7 +10255,7 @@
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
-      <c r="D184" s="10"/>
+      <c r="D184" s="15"/>
       <c r="E184" s="13"/>
       <c r="F184" s="14"/>
       <c r="G184" s="14"/>
@@ -10289,7 +10285,7 @@
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
-      <c r="D187" s="15"/>
+      <c r="D187" s="10"/>
       <c r="E187" s="13"/>
       <c r="F187" s="14"/>
       <c r="G187" s="14"/>
@@ -10299,7 +10295,7 @@
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
-      <c r="D188" s="10"/>
+      <c r="D188" s="15"/>
       <c r="E188" s="13"/>
       <c r="F188" s="14"/>
       <c r="G188" s="14"/>
@@ -10329,7 +10325,7 @@
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
-      <c r="D191" s="15"/>
+      <c r="D191" s="10"/>
       <c r="E191" s="13"/>
       <c r="F191" s="14"/>
       <c r="G191" s="14"/>
@@ -10339,7 +10335,7 @@
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
-      <c r="D192" s="10"/>
+      <c r="D192" s="15"/>
       <c r="E192" s="13"/>
       <c r="F192" s="14"/>
       <c r="G192" s="14"/>
@@ -10369,7 +10365,7 @@
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
-      <c r="D195" s="15"/>
+      <c r="D195" s="10"/>
       <c r="E195" s="13"/>
       <c r="F195" s="14"/>
       <c r="G195" s="14"/>
@@ -10379,7 +10375,7 @@
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
-      <c r="D196" s="10"/>
+      <c r="D196" s="15"/>
       <c r="E196" s="13"/>
       <c r="F196" s="14"/>
       <c r="G196" s="14"/>
@@ -10409,7 +10405,7 @@
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
-      <c r="D199" s="15"/>
+      <c r="D199" s="10"/>
       <c r="E199" s="13"/>
       <c r="F199" s="14"/>
       <c r="G199" s="14"/>
@@ -10419,17 +10415,17 @@
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
-      <c r="D200" s="10"/>
+      <c r="D200" s="15"/>
       <c r="E200" s="13"/>
       <c r="F200" s="14"/>
       <c r="G200" s="14"/>
       <c r="H200" s="13"/>
     </row>
-    <row r="201" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A201" s="13"/>
-      <c r="B201" s="13"/>
-      <c r="C201" s="13"/>
-      <c r="D201" s="16"/>
+    <row r="201" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A201" s="9"/>
+      <c r="B201" s="9"/>
+      <c r="C201" s="9"/>
+      <c r="D201" s="10"/>
       <c r="E201" s="13"/>
       <c r="F201" s="14"/>
       <c r="G201" s="14"/>
@@ -18425,322 +18421,332 @@
       <c r="G1000" s="14"/>
       <c r="H1000" s="13"/>
     </row>
+    <row r="1001" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1001" s="13"/>
+      <c r="B1001" s="13"/>
+      <c r="C1001" s="13"/>
+      <c r="D1001" s="16"/>
+      <c r="E1001" s="13"/>
+      <c r="F1001" s="14"/>
+      <c r="G1001" s="14"/>
+      <c r="H1001" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
+  <conditionalFormatting sqref="E3:E11 E13:E20 E54:E56">
+    <cfRule type="cellIs" dxfId="68" priority="82" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="cellIs" dxfId="67" priority="77" operator="equal">
+  <conditionalFormatting sqref="E3:E11 E13:E20 E54:E56">
+    <cfRule type="cellIs" dxfId="67" priority="83" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E11 E13:E20">
-    <cfRule type="containsBlanks" dxfId="66" priority="78">
+  <conditionalFormatting sqref="E3:E11 E13:E20 E54:E56">
+    <cfRule type="containsBlanks" dxfId="66" priority="84">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30 E33:E38">
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30 E33:E38">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="71" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30 E33:E38">
-    <cfRule type="containsBlanks" dxfId="63" priority="66">
+    <cfRule type="containsBlanks" dxfId="63" priority="72">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="68" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="60" priority="63">
+    <cfRule type="containsBlanks" dxfId="60" priority="69">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="65" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="57" priority="60">
+    <cfRule type="containsBlanks" dxfId="57" priority="66">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="54" priority="57">
+    <cfRule type="containsBlanks" dxfId="54" priority="63">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsBlanks" dxfId="51" priority="54">
+    <cfRule type="containsBlanks" dxfId="51" priority="60">
       <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsBlanks" dxfId="48" priority="51">
+    <cfRule type="containsBlanks" dxfId="48" priority="57">
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="45" priority="48">
+    <cfRule type="containsBlanks" dxfId="45" priority="54">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsBlanks" dxfId="42" priority="45">
+    <cfRule type="containsBlanks" dxfId="42" priority="51">
       <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsBlanks" dxfId="39" priority="42">
+    <cfRule type="containsBlanks" dxfId="39" priority="48">
       <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="containsBlanks" dxfId="36" priority="39">
+    <cfRule type="containsBlanks" dxfId="36" priority="45">
       <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="containsBlanks" dxfId="33" priority="36">
+    <cfRule type="containsBlanks" dxfId="33" priority="42">
       <formula>LEN(TRIM(E43))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="containsBlanks" dxfId="30" priority="33">
+    <cfRule type="containsBlanks" dxfId="30" priority="39">
       <formula>LEN(TRIM(E44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="containsBlanks" dxfId="27" priority="30">
+    <cfRule type="containsBlanks" dxfId="27" priority="36">
       <formula>LEN(TRIM(E45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="containsBlanks" dxfId="24" priority="27">
+    <cfRule type="containsBlanks" dxfId="24" priority="33">
       <formula>LEN(TRIM(E46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="containsBlanks" dxfId="21" priority="24">
+    <cfRule type="containsBlanks" dxfId="21" priority="30">
       <formula>LEN(TRIM(E47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="containsBlanks" dxfId="18" priority="21">
+    <cfRule type="containsBlanks" dxfId="18" priority="27">
       <formula>LEN(TRIM(E48))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="containsBlanks" dxfId="15" priority="18">
+    <cfRule type="containsBlanks" dxfId="15" priority="24">
       <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="containsBlanks" dxfId="12" priority="15">
+    <cfRule type="containsBlanks" dxfId="12" priority="21">
       <formula>LEN(TRIM(E50))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsBlanks" dxfId="9" priority="12">
+    <cfRule type="containsBlanks" dxfId="9" priority="18">
       <formula>LEN(TRIM(E51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsBlanks" dxfId="6" priority="9">
+    <cfRule type="containsBlanks" dxfId="6" priority="15">
       <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18759,19 +18765,19 @@
       <formula>LEN(TRIM(E53))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:E57">
+  <conditionalFormatting sqref="E57">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:E57">
+  <conditionalFormatting sqref="E57">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:E57">
+  <conditionalFormatting sqref="E57">
     <cfRule type="containsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(E54))=0</formula>
+      <formula>LEN(TRIM(E57))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CasperLim\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDBA105-04B4-442A-86C4-D1BCCF6B465E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB34ADF-21CF-4B62-971E-75A8FDB8F222}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="115">
   <si>
     <t>Bug Log</t>
   </si>
@@ -367,6 +367,15 @@
   <si>
     <t>Bao Xian and Yan Ning</t>
   </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>After round 2 has ended, it doesn’t show the user what bid did they successfully get</t>
+  </si>
+  <si>
+    <t>Unresolved</t>
+  </si>
 </sst>
 </file>
 
@@ -691,16 +700,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="70">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1184,6 +1183,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1575,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40:G56"/>
+    <sheetView topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2895,14 +2904,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>56</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="F57" s="39" t="str">
+      <c r="B57" s="26">
+        <v>4</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -7536,7 +7559,7 @@
     <mergeCell ref="G28:G36"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Stop current Development">
+    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="Stop current Development">
       <formula>NOT(ISERROR(SEARCH("Stop current Development",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7553,8 +7576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9082,9 +9105,25 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="26"/>
+    <row r="58" spans="1:8" ht="29" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>56</v>
+      </c>
+      <c r="B58" s="26">
+        <v>4</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" s="14">
+        <v>43787</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
@@ -18521,352 +18560,352 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E11 E13:E20 E54:E56">
-    <cfRule type="cellIs" dxfId="69" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="82" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20 E54:E56">
-    <cfRule type="cellIs" dxfId="68" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="83" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E11 E13:E20 E54:E56">
-    <cfRule type="containsBlanks" dxfId="67" priority="84">
+    <cfRule type="containsBlanks" dxfId="66" priority="84">
       <formula>LEN(TRIM(E3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30 E33:E38">
-    <cfRule type="cellIs" dxfId="66" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30 E33:E38">
-    <cfRule type="cellIs" dxfId="65" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="71" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E30 E33:E38">
-    <cfRule type="containsBlanks" dxfId="64" priority="72">
+    <cfRule type="containsBlanks" dxfId="63" priority="72">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="63" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="62" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="68" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsBlanks" dxfId="61" priority="69">
+    <cfRule type="containsBlanks" dxfId="60" priority="69">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="59" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="65" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsBlanks" dxfId="58" priority="66">
+    <cfRule type="containsBlanks" dxfId="57" priority="66">
       <formula>LEN(TRIM(E21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsBlanks" dxfId="55" priority="63">
+    <cfRule type="containsBlanks" dxfId="54" priority="63">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsBlanks" dxfId="52" priority="60">
+    <cfRule type="containsBlanks" dxfId="51" priority="60">
       <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="50" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsBlanks" dxfId="49" priority="57">
+    <cfRule type="containsBlanks" dxfId="48" priority="57">
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="47" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="46" priority="54">
+    <cfRule type="containsBlanks" dxfId="45" priority="54">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="44" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsBlanks" dxfId="43" priority="51">
+    <cfRule type="containsBlanks" dxfId="42" priority="51">
       <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsBlanks" dxfId="40" priority="48">
+    <cfRule type="containsBlanks" dxfId="39" priority="48">
       <formula>LEN(TRIM(E41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="containsBlanks" dxfId="37" priority="45">
+    <cfRule type="containsBlanks" dxfId="36" priority="45">
       <formula>LEN(TRIM(E42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="35" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="41" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="containsBlanks" dxfId="34" priority="42">
+    <cfRule type="containsBlanks" dxfId="33" priority="42">
       <formula>LEN(TRIM(E43))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="containsBlanks" dxfId="31" priority="39">
+    <cfRule type="containsBlanks" dxfId="30" priority="39">
       <formula>LEN(TRIM(E44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="containsBlanks" dxfId="28" priority="36">
+    <cfRule type="containsBlanks" dxfId="27" priority="36">
       <formula>LEN(TRIM(E45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="containsBlanks" dxfId="25" priority="33">
+    <cfRule type="containsBlanks" dxfId="24" priority="33">
       <formula>LEN(TRIM(E46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="containsBlanks" dxfId="22" priority="30">
+    <cfRule type="containsBlanks" dxfId="21" priority="30">
       <formula>LEN(TRIM(E47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="containsBlanks" dxfId="19" priority="27">
+    <cfRule type="containsBlanks" dxfId="18" priority="27">
       <formula>LEN(TRIM(E48))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="containsBlanks" dxfId="16" priority="24">
+    <cfRule type="containsBlanks" dxfId="15" priority="24">
       <formula>LEN(TRIM(E49))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="containsBlanks" dxfId="13" priority="21">
+    <cfRule type="containsBlanks" dxfId="12" priority="21">
       <formula>LEN(TRIM(E50))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsBlanks" dxfId="10" priority="18">
+    <cfRule type="containsBlanks" dxfId="9" priority="18">
       <formula>LEN(TRIM(E51))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsBlanks" dxfId="7" priority="15">
+    <cfRule type="containsBlanks" dxfId="6" priority="15">
       <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(E53))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unresolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Resolved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(E57))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E3:E57" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E58" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Unresolved,Resolved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/metrics/Bm.xlsx
+++ b/metrics/Bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CasperLim\Documents\GitHub\project-g4t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB34ADF-21CF-4B62-971E-75A8FDB8F222}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B1CAA7-F0EF-4A9A-94B2-7435AC1DFB0E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="114">
   <si>
     <t>Bug Log</t>
   </si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>After round 2 has ended, it doesn’t show the user what bid did they successfully get</t>
-  </si>
-  <si>
-    <t>Unresolved</t>
   </si>
 </sst>
 </file>
@@ -1584,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2924,6 +2921,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="G57" s="55"/>
       <c r="H57" s="24" t="s">
         <v>21</v>
       </c>
@@ -7550,13 +7548,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="G40:G56"/>
     <mergeCell ref="G37:G39"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G3:G21"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G24:G27"/>
     <mergeCell ref="G28:G36"/>
+    <mergeCell ref="G40:G57"/>
   </mergeCells>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="Stop current Development">
@@ -7576,8 +7574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9119,10 +9117,16 @@
         <v>113</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="F58" s="14">
         <v>43787</v>
+      </c>
+      <c r="G58" s="14">
+        <v>43787</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
